--- a/data/hotels_by_city/Houston/Houston_shard_99.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_99.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56761-d1026224-Reviews-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Comfort-Inn-Suites-Texas-City.h1916047.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1388 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r594218414-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>1026224</t>
+  </si>
+  <si>
+    <t>594218414</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Would not recommend</t>
+  </si>
+  <si>
+    <t>Wish I would have read the reviews before booking...the musty smell was terrible the next day my legs were covered in itchy red bites..I didn’t look for signs of bugs but can tell I was Bitten in clusters.I have no experience with bed bugs but after reading about them,one sign is a musty smell. Though I cannot say for absolute positivity I saw any I can defiantly tell something bitten like crazy. Went down for breakfast and went to grab a muffin and saw a fly in the case with the breads. Left immediately and will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Wish I would have read the reviews before booking...the musty smell was terrible the next day my legs were covered in itchy red bites..I didn’t look for signs of bugs but can tell I was Bitten in clusters.I have no experience with bed bugs but after reading about them,one sign is a musty smell. Though I cannot say for absolute positivity I saw any I can defiantly tell something bitten like crazy. Went down for breakfast and went to grab a muffin and saw a fly in the case with the breads. Left immediately and will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r587666850-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>587666850</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Great Pre-Cruise Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights before leaving on a cruise out of Galveston.  We were very comfortable and found the rooms to be clean and spacious.  Breakfast was a huge plus for us and we enjoyed it both mornings.  We did use the pool, but the hot tub didn't seem to be working properly and appeared a bit dingy.  The pool was fine for us and the kids loved it.  It's only about a 20-30 minute drive to the cruise port, which worked well for us.  It's also only about 15 minutes in the other direction to reach other major shopping areas.We very much enjoyed our stay here and will look here first when booking future cruises out of Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights before leaving on a cruise out of Galveston.  We were very comfortable and found the rooms to be clean and spacious.  Breakfast was a huge plus for us and we enjoyed it both mornings.  We did use the pool, but the hot tub didn't seem to be working properly and appeared a bit dingy.  The pool was fine for us and the kids loved it.  It's only about a 20-30 minute drive to the cruise port, which worked well for us.  It's also only about 15 minutes in the other direction to reach other major shopping areas.We very much enjoyed our stay here and will look here first when booking future cruises out of Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r580702784-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>580702784</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Worn Down Rooms!!</t>
+  </si>
+  <si>
+    <t>A Very Worn Down Hotel. We switched rooms twice right away because they had a very strong, musty odor. The lady at the front desk was very understanding. While the third room didn't smell, there were dings and dents everywhere, dirt on walls, mascara on the half pillows. So, maybe it's the luck of the draw but all three rooms were a bust for me.Also, don't even think about eating the breakfast.(or lack of) spoiled milk and stale muffins with powered eggs.The only positives I can say is. The rooms are Large. (2 queens) The young ladies at the front desk are very friendly. They have microwaves and refrigerators. That's it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2018</t>
+  </si>
+  <si>
+    <t>A Very Worn Down Hotel. We switched rooms twice right away because they had a very strong, musty odor. The lady at the front desk was very understanding. While the third room didn't smell, there were dings and dents everywhere, dirt on walls, mascara on the half pillows. So, maybe it's the luck of the draw but all three rooms were a bust for me.Also, don't even think about eating the breakfast.(or lack of) spoiled milk and stale muffins with powered eggs.The only positives I can say is. The rooms are Large. (2 queens) The young ladies at the front desk are very friendly. They have microwaves and refrigerators. That's it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r548577151-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>548577151</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Should come back here</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights, the rooms were neat and clean, view is not that good, but we didn't spend much time there, front desk personnel was friendly, loved the swimming pool, also Galveston Island and Kemmah is close from there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights, the rooms were neat and clean, view is not that good, but we didn't spend much time there, front desk personnel was friendly, loved the swimming pool, also Galveston Island and Kemmah is close from there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r542527490-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>542527490</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Another Pre-Cruise Stay</t>
+  </si>
+  <si>
+    <t>I too stayed here before heading off to the cruise line the next day. Got up drove to the gas station a block away, washed the car next the gas station, then next door to Starbucks for coffee.Couldn't have been any better. Friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>I too stayed here before heading off to the cruise line the next day. Got up drove to the gas station a block away, washed the car next the gas station, then next door to Starbucks for coffee.Couldn't have been any better. Friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r532344455-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>532344455</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>They checked me into a room that had a bad odor and after it started making me sick, I realized it was mold.  I checked into the room after 8pm and had to leave before midnight and the manager has made no attempt to make amends.  I suspect that this hotel may have had damages as a result of hurricane Harvey and are renting water damaged rooms to the unsuspecting public. If you can avoid it, DO NOT STAY HERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>They checked me into a room that had a bad odor and after it started making me sick, I realized it was mold.  I checked into the room after 8pm and had to leave before midnight and the manager has made no attempt to make amends.  I suspect that this hotel may have had damages as a result of hurricane Harvey and are renting water damaged rooms to the unsuspecting public. If you can avoid it, DO NOT STAY HERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r495934074-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>495934074</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Quick fishing trip</t>
+  </si>
+  <si>
+    <t>when we arrived and checked in, went to the room to settle in and the room was hot.  Adjusted thermostat on AC and hoped it would cool off by the time we came back.  Left and went to Moody Gardens, retured to shower and change, but the room was still hot, THe AC was not working. Called to the front desk and the clerk came up to check.  He then hurried and got us another room where the AC was working.  He was very nice and helpful.  The room we moved to was cool. Bed was not comfy, but was adequate.  Staff very nice here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>when we arrived and checked in, went to the room to settle in and the room was hot.  Adjusted thermostat on AC and hoped it would cool off by the time we came back.  Left and went to Moody Gardens, retured to shower and change, but the room was still hot, THe AC was not working. Called to the front desk and the clerk came up to check.  He then hurried and got us another room where the AC was working.  He was very nice and helpful.  The room we moved to was cool. Bed was not comfy, but was adequate.  Staff very nice here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r494925897-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>494925897</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Stayed here one night of our 3 in the Galveston area.   Got to check in early, which was nice to drop off suitcases before heading to the beach.  Room was very clean, spacious and comfortable.  Bed and pillows were great.  AC unit was a little loud shutting off and on during the night.  (couldn't figure out how to keep fan running to drown out noise)  We used the pool on our evening stay, but the hot tub wasn't hot.  Jets were working and it would have been great if the heat was.   Otherwise, all was good.  Breakfast adequate.  Would stay again because the price was good compared to some in Galveston.  Stayed this visit on Choice points.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here one night of our 3 in the Galveston area.   Got to check in early, which was nice to drop off suitcases before heading to the beach.  Room was very clean, spacious and comfortable.  Bed and pillows were great.  AC unit was a little loud shutting off and on during the night.  (couldn't figure out how to keep fan running to drown out noise)  We used the pool on our evening stay, but the hot tub wasn't hot.  Jets were working and it would have been great if the heat was.   Otherwise, all was good.  Breakfast adequate.  Would stay again because the price was good compared to some in Galveston.  Stayed this visit on Choice points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r487980259-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>487980259</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>CRUISE VISIT</t>
+  </si>
+  <si>
+    <t>This is a very nice motel and is very convenient to the cruise port. The pool area was clean and they let us stay a little past the 10pm closure. They did not ask us to leave but we did so no one would get in trouble. Breakfast was averageMoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>This is a very nice motel and is very convenient to the cruise port. The pool area was clean and they let us stay a little past the 10pm closure. They did not ask us to leave but we did so no one would get in trouble. Breakfast was averageMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r469409826-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>469409826</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Comfy Bed but the rest....</t>
+  </si>
+  <si>
+    <t>The beds were awesome and clean, pool was nice, breakfast mediocre.  Service needs to be better.   Stayed with wedding party and stayed extra day, they  would not give us  wedding rate discount for second day.. Gave my room away and had to re book.  They were very difficult to work with..  You get to view of the all the factories and smoke stacks and refineries...so not a pleasant sight.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>The beds were awesome and clean, pool was nice, breakfast mediocre.  Service needs to be better.   Stayed with wedding party and stayed extra day, they  would not give us  wedding rate discount for second day.. Gave my room away and had to re book.  They were very difficult to work with..  You get to view of the all the factories and smoke stacks and refineries...so not a pleasant sight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r469212982-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>469212982</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Major disaster</t>
+  </si>
+  <si>
+    <t>We arrived to the hotel around 10 PM after spending all day at Sea World and then driving nearly 4 hours.  We were tired and ready to crash.  My husband checked in and got the key to our room.  We loaded up and headed to our room.  The key worked, but the door would not open because the latch was pulled inside the door.  A man then came to the door and asked why we were coming in his room.  So, we went back to the desk and explained that the room they sent us to was already occupied.  
+At that point the woman working the desk had to call the hotel manager because they didn't have anymore rooms that would work for our family of 4.  They only had a room with 1 king bed.  We were told there were no more hotel rooms available nearby due to it being spring break.  So we took the king bed (they called it a free upgrade, which wasn't the case at all since we needed 2 queen beds) along with a roll away that they offered us.  Unfortunately, the roll away was only a twin bed.  Therefore, one of our kids had to sleep in bed with us.  Our kids are 12 and 8 so this made for a very uncomfortable night.  The woman at the front desk told us to call hotels.com to get a refund for our room since...We arrived to the hotel around 10 PM after spending all day at Sea World and then driving nearly 4 hours.  We were tired and ready to crash.  My husband checked in and got the key to our room.  We loaded up and headed to our room.  The key worked, but the door would not open because the latch was pulled inside the door.  A man then came to the door and asked why we were coming in his room.  So, we went back to the desk and explained that the room they sent us to was already occupied.  At that point the woman working the desk had to call the hotel manager because they didn't have anymore rooms that would work for our family of 4.  They only had a room with 1 king bed.  We were told there were no more hotel rooms available nearby due to it being spring break.  So we took the king bed (they called it a free upgrade, which wasn't the case at all since we needed 2 queen beds) along with a roll away that they offered us.  Unfortunately, the roll away was only a twin bed.  Therefore, one of our kids had to sleep in bed with us.  Our kids are 12 and 8 so this made for a very uncomfortable night.  The woman at the front desk told us to call hotels.com to get a refund for our room since our reservation was for a room with 2 beds and we didn't get that.  The next day I called and talked to someone at hotels.com.  They called the hotel to find out what happened and the hotel denied the event.  They said they had "no record of having to move us to a room other than what we reserved".  Therefore it took 45 minutes of convincing on my part to finally get a refund.  I understand mistakes are made, but when you do a customer wrong, it is your job to fix it and this hotel was not willing to do that.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived to the hotel around 10 PM after spending all day at Sea World and then driving nearly 4 hours.  We were tired and ready to crash.  My husband checked in and got the key to our room.  We loaded up and headed to our room.  The key worked, but the door would not open because the latch was pulled inside the door.  A man then came to the door and asked why we were coming in his room.  So, we went back to the desk and explained that the room they sent us to was already occupied.  
+At that point the woman working the desk had to call the hotel manager because they didn't have anymore rooms that would work for our family of 4.  They only had a room with 1 king bed.  We were told there were no more hotel rooms available nearby due to it being spring break.  So we took the king bed (they called it a free upgrade, which wasn't the case at all since we needed 2 queen beds) along with a roll away that they offered us.  Unfortunately, the roll away was only a twin bed.  Therefore, one of our kids had to sleep in bed with us.  Our kids are 12 and 8 so this made for a very uncomfortable night.  The woman at the front desk told us to call hotels.com to get a refund for our room since...We arrived to the hotel around 10 PM after spending all day at Sea World and then driving nearly 4 hours.  We were tired and ready to crash.  My husband checked in and got the key to our room.  We loaded up and headed to our room.  The key worked, but the door would not open because the latch was pulled inside the door.  A man then came to the door and asked why we were coming in his room.  So, we went back to the desk and explained that the room they sent us to was already occupied.  At that point the woman working the desk had to call the hotel manager because they didn't have anymore rooms that would work for our family of 4.  They only had a room with 1 king bed.  We were told there were no more hotel rooms available nearby due to it being spring break.  So we took the king bed (they called it a free upgrade, which wasn't the case at all since we needed 2 queen beds) along with a roll away that they offered us.  Unfortunately, the roll away was only a twin bed.  Therefore, one of our kids had to sleep in bed with us.  Our kids are 12 and 8 so this made for a very uncomfortable night.  The woman at the front desk told us to call hotels.com to get a refund for our room since our reservation was for a room with 2 beds and we didn't get that.  The next day I called and talked to someone at hotels.com.  They called the hotel to find out what happened and the hotel denied the event.  They said they had "no record of having to move us to a room other than what we reserved".  Therefore it took 45 minutes of convincing on my part to finally get a refund.  I understand mistakes are made, but when you do a customer wrong, it is your job to fix it and this hotel was not willing to do that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r467963255-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>467963255</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and close</t>
+  </si>
+  <si>
+    <t>After spending a long day of travel and a day full of meetings, I booked a room at the comfort inn. My room was clean at first glance and staff was friendly. Felt like I had made a good decision. As I'm getting ready for bed, I noted the sheets actually had sneaker prints on them as if someone had stepped on the pillowcases and sheets. Up until that point I felt I had made a good choice with my stay. A family staying down the hall with lots of small kids ran up and down the hallway most of the night giggling running screaming and yelling. Apparently no parenting involved in that one LOL. The bed however was comfortable, I just didn't sleep on the sneaker printed part of the sheet. Given the proximity to where I needed to be early in the morning, I was too tired to care too much about the little idiosyncrasies of room not found to be perfect.  Hotel was reasonably priced and once the loud family settle down offered a comfortable night sleep. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>After spending a long day of travel and a day full of meetings, I booked a room at the comfort inn. My room was clean at first glance and staff was friendly. Felt like I had made a good decision. As I'm getting ready for bed, I noted the sheets actually had sneaker prints on them as if someone had stepped on the pillowcases and sheets. Up until that point I felt I had made a good choice with my stay. A family staying down the hall with lots of small kids ran up and down the hallway most of the night giggling running screaming and yelling. Apparently no parenting involved in that one LOL. The bed however was comfortable, I just didn't sleep on the sneaker printed part of the sheet. Given the proximity to where I needed to be early in the morning, I was too tired to care too much about the little idiosyncrasies of room not found to be perfect.  Hotel was reasonably priced and once the loud family settle down offered a comfortable night sleep. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r463782249-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>463782249</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Great Pre-cruise Hotel</t>
+  </si>
+  <si>
+    <t>Stayed on a Friday night pre-cruise. The hotel is modern and clean and the staff is friendly. It is located about 10 miles from the Galveston Cruise Terminal. Much better value than staying on the island. Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded March 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2017</t>
+  </si>
+  <si>
+    <t>Stayed on a Friday night pre-cruise. The hotel is modern and clean and the staff is friendly. It is located about 10 miles from the Galveston Cruise Terminal. Much better value than staying on the island. Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r460258333-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>460258333</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Nice Location</t>
+  </si>
+  <si>
+    <t>We stayed here one night pre-cruise in January. We flew into Houston Hobby airport. The hotel prices in Galveston were extremely high so we opted for this hotel in Texas City. I was happy that we did. Upon check-in I had asked the front desk employee for two rooms close together for our friends who would be checking shortly after we did. We were given room 108 and our friends were in room 106. This was very convenient.The room was clean, quiet. The beds and linens were clean and comfortable. The A/C in the room had a little trouble maintaining adequate temperature but it was OK. Breakfast in the morning was typical for a hotel breakfast...nothing too special.Upon check-out we requested an Uber to pick us up and take us to the port in Galveston. Our driver showed up within 15 minutes and away we went to begin our cruise. I would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded February 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here one night pre-cruise in January. We flew into Houston Hobby airport. The hotel prices in Galveston were extremely high so we opted for this hotel in Texas City. I was happy that we did. Upon check-in I had asked the front desk employee for two rooms close together for our friends who would be checking shortly after we did. We were given room 108 and our friends were in room 106. This was very convenient.The room was clean, quiet. The beds and linens were clean and comfortable. The A/C in the room had a little trouble maintaining adequate temperature but it was OK. Breakfast in the morning was typical for a hotel breakfast...nothing too special.Upon check-out we requested an Uber to pick us up and take us to the port in Galveston. Our driver showed up within 15 minutes and away we went to begin our cruise. I would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r452382606-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>452382606</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-cruise </t>
+  </si>
+  <si>
+    <t>Hotel had a good price for a weekend night.  There was not much too do in the area. The price difference from here and galveston was well worth it. Friendly check in, clean rooms, good breakfast. If you  need a decent place too stay for a good price before a cruise, it's a good choice MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Hotel had a good price for a weekend night.  There was not much too do in the area. The price difference from here and galveston was well worth it. Friendly check in, clean rooms, good breakfast. If you  need a decent place too stay for a good price before a cruise, it's a good choice More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r429323927-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>429323927</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Great Pre-Cruise Stay Just Minutes from Port</t>
+  </si>
+  <si>
+    <t>After booking our cruise out of Galveston, I began looking for a place to spend the night prior to our departure. Everything in Galveston seemed expensive and many required two or more nights which we didn't need. On one of the cruise forums that I'm on, someone mentioned staying in Texas City since it's only about 15 minutes from the port. I did some research and found the Comfort Inn and Suites Galveston Bay Refineries in Texas City seemed to have a good rating and the price was good too.
+We arrived that evening and check-in took just a few minutes. We went to our room and it was very spacious. However, our friends who were traveling with us were in room 209 and it had an unusual odor. They reported it to the front desk and were promptly assigned another room.
+They offered a good breakfast the following morning including homemade waffles and biscuits &amp; gravy. My biggest disappointment with the breakfast was the fact that they had signs asking to please not take any food from the dining area. Our morning routine when we are in a hotel is that hubby goes and gets breakfast and brings something back to me in the room while I'm getting ready. Since we try to follow the rules, DH did not bring me anything. Since I thought that he would be able to bring something back to the room that morning,...After booking our cruise out of Galveston, I began looking for a place to spend the night prior to our departure. Everything in Galveston seemed expensive and many required two or more nights which we didn't need. On one of the cruise forums that I'm on, someone mentioned staying in Texas City since it's only about 15 minutes from the port. I did some research and found the Comfort Inn and Suites Galveston Bay Refineries in Texas City seemed to have a good rating and the price was good too.We arrived that evening and check-in took just a few minutes. We went to our room and it was very spacious. However, our friends who were traveling with us were in room 209 and it had an unusual odor. They reported it to the front desk and were promptly assigned another room.They offered a good breakfast the following morning including homemade waffles and biscuits &amp; gravy. My biggest disappointment with the breakfast was the fact that they had signs asking to please not take any food from the dining area. Our morning routine when we are in a hotel is that hubby goes and gets breakfast and brings something back to me in the room while I'm getting ready. Since we try to follow the rules, DH did not bring me anything. Since I thought that he would be able to bring something back to the room that morning, I didn't allow myself extra time to go down and get breakfast when I set my alarm the night before. This was disappointing for me.All in all, it was a good stay and I will book with them again the next time we cruise out of Galveston...I'll just know to set my alarm a little earlier this time. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>After booking our cruise out of Galveston, I began looking for a place to spend the night prior to our departure. Everything in Galveston seemed expensive and many required two or more nights which we didn't need. On one of the cruise forums that I'm on, someone mentioned staying in Texas City since it's only about 15 minutes from the port. I did some research and found the Comfort Inn and Suites Galveston Bay Refineries in Texas City seemed to have a good rating and the price was good too.
+We arrived that evening and check-in took just a few minutes. We went to our room and it was very spacious. However, our friends who were traveling with us were in room 209 and it had an unusual odor. They reported it to the front desk and were promptly assigned another room.
+They offered a good breakfast the following morning including homemade waffles and biscuits &amp; gravy. My biggest disappointment with the breakfast was the fact that they had signs asking to please not take any food from the dining area. Our morning routine when we are in a hotel is that hubby goes and gets breakfast and brings something back to me in the room while I'm getting ready. Since we try to follow the rules, DH did not bring me anything. Since I thought that he would be able to bring something back to the room that morning,...After booking our cruise out of Galveston, I began looking for a place to spend the night prior to our departure. Everything in Galveston seemed expensive and many required two or more nights which we didn't need. On one of the cruise forums that I'm on, someone mentioned staying in Texas City since it's only about 15 minutes from the port. I did some research and found the Comfort Inn and Suites Galveston Bay Refineries in Texas City seemed to have a good rating and the price was good too.We arrived that evening and check-in took just a few minutes. We went to our room and it was very spacious. However, our friends who were traveling with us were in room 209 and it had an unusual odor. They reported it to the front desk and were promptly assigned another room.They offered a good breakfast the following morning including homemade waffles and biscuits &amp; gravy. My biggest disappointment with the breakfast was the fact that they had signs asking to please not take any food from the dining area. Our morning routine when we are in a hotel is that hubby goes and gets breakfast and brings something back to me in the room while I'm getting ready. Since we try to follow the rules, DH did not bring me anything. Since I thought that he would be able to bring something back to the room that morning, I didn't allow myself extra time to go down and get breakfast when I set my alarm the night before. This was disappointing for me.All in all, it was a good stay and I will book with them again the next time we cruise out of Galveston...I'll just know to set my alarm a little earlier this time. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r429010763-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>429010763</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Nice place but could be better.</t>
+  </si>
+  <si>
+    <t>Comfort Inn Texas City.  It gives a great visual appearance.  It’s clean and the water is nice and hot.  My room (311) was spacious and well laid out.  Lots of counter space in the bathroom.  Wifi is OK (3/5), with a noticeable lag at times but definitely usable.  (Note: the wifi completely crapped out the next morning, just when I needed it.)  The laundry room has two washing machines and two dryers.Negatives: 1) My room had a musty smell.   2) My room was by the elevator, which has an announcement chime when the doors open.  The chime was very loud and came straight through my door into my room; rather annoying in the morning.  3) The breakfast room was running out of food, including milk and coffee, before closing time, with no replenishment in sight.The motel’s location is a bit odd.  It’s in an industrial area where you don’t expect to find a good motel.  The location actually makes it very convenient, but there is nothing that is walking distance.Value 5/5.  Overall 3/5.  I’m not sure if I’d stay here again, mostly due to the musty smell in my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Comfort Inn Texas City.  It gives a great visual appearance.  It’s clean and the water is nice and hot.  My room (311) was spacious and well laid out.  Lots of counter space in the bathroom.  Wifi is OK (3/5), with a noticeable lag at times but definitely usable.  (Note: the wifi completely crapped out the next morning, just when I needed it.)  The laundry room has two washing machines and two dryers.Negatives: 1) My room had a musty smell.   2) My room was by the elevator, which has an announcement chime when the doors open.  The chime was very loud and came straight through my door into my room; rather annoying in the morning.  3) The breakfast room was running out of food, including milk and coffee, before closing time, with no replenishment in sight.The motel’s location is a bit odd.  It’s in an industrial area where you don’t expect to find a good motel.  The location actually makes it very convenient, but there is nothing that is walking distance.Value 5/5.  Overall 3/5.  I’m not sure if I’d stay here again, mostly due to the musty smell in my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r425589559-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>425589559</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Nice bargain price hotel</t>
+  </si>
+  <si>
+    <t>Very nice, newer Comfort Inn, we spent 1 night there before our cruise. Very good breakfast. Price is very good compared to staying in Galveston, and this is only about 15-20 minutes from the pier. Had a very safe parking area, and close to several grocery stores, for that last minute wine purchase.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded October 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2016</t>
+  </si>
+  <si>
+    <t>Very nice, newer Comfort Inn, we spent 1 night there before our cruise. Very good breakfast. Price is very good compared to staying in Galveston, and this is only about 15-20 minutes from the pier. Had a very safe parking area, and close to several grocery stores, for that last minute wine purchase.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r414301856-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>414301856</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Clean comfortable room with friendly staff</t>
+  </si>
+  <si>
+    <t>We were in town visiting relatives and needed a place to stay. The location is not the best since it is fairly near the refineries, but it was much closer to town than the motels on the interstate (I45). It is very reasonably priced.We had a comfortable bed, a quiet room, and the usual average breakfast.The staff was friendly and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jody P, General Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>We were in town visiting relatives and needed a place to stay. The location is not the best since it is fairly near the refineries, but it was much closer to town than the motels on the interstate (I45). It is very reasonably priced.We had a comfortable bed, a quiet room, and the usual average breakfast.The staff was friendly and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r406851957-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>406851957</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>$185 Surcharged without notification for a Bed-sheet and Pillow that could be washed</t>
+  </si>
+  <si>
+    <t>The staff (Unfriendly and mean Big Mexican Lady)  and the manager of the hotel are not inconsiderate and really rude.I arrived and was giving a room that was rejected by a guest in my very presence, I told her I need to check the room out before I could accepted it, she refused until after much persuasion. The Couch was dirty and torn on the armrest. To cut the long story short, my wife made the booking. Later that night my toddler accidentally spilled beverage on the bed-sheet that could be washed off, after checking out my wife was surcharge of $185 for the bed-sheet and $10 pillow without any communication. My advise to any customer to pay more to have better service and location in Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff (Unfriendly and mean Big Mexican Lady)  and the manager of the hotel are not inconsiderate and really rude.I arrived and was giving a room that was rejected by a guest in my very presence, I told her I need to check the room out before I could accepted it, she refused until after much persuasion. The Couch was dirty and torn on the armrest. To cut the long story short, my wife made the booking. Later that night my toddler accidentally spilled beverage on the bed-sheet that could be washed off, after checking out my wife was surcharge of $185 for the bed-sheet and $10 pillow without any communication. My advise to any customer to pay more to have better service and location in Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r398601518-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>398601518</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>First trip to Texas City</t>
+  </si>
+  <si>
+    <t>The king size bed and bedding was nice. Had plenty of bath towels. The room was clean. The breakfast was good. Lots of food items to choose from. I was there for a 3-day trip with my students. It was nice to come back to a neat and tidy room. The ADA room was spacious and the tub was low to the floor. It just needed a bathroom floor mat.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>The king size bed and bedding was nice. Had plenty of bath towels. The room was clean. The breakfast was good. Lots of food items to choose from. I was there for a 3-day trip with my students. It was nice to come back to a neat and tidy room. The ADA room was spacious and the tub was low to the floor. It just needed a bathroom floor mat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r385968192-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>385968192</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Close to Galveston, better rates.</t>
+  </si>
+  <si>
+    <t>Check in was quick, asked for room close to pool and got that. Room was clean, beds were ok. Most of the staff were nice. It is obvious that the owners are very frugal, front desk help has most of the breakfast duty, therefore if people are checking out or the phone is ringing, the breakfast gets last priority. No fresh baked cookies, not that we saw or smelled. Only about 20 mins or less to Galveston. Pool opens early, that is nice if you are traveling with children. For the price it was just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Jody P, General Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2016</t>
+  </si>
+  <si>
+    <t>Check in was quick, asked for room close to pool and got that. Room was clean, beds were ok. Most of the staff were nice. It is obvious that the owners are very frugal, front desk help has most of the breakfast duty, therefore if people are checking out or the phone is ringing, the breakfast gets last priority. No fresh baked cookies, not that we saw or smelled. Only about 20 mins or less to Galveston. Pool opens early, that is nice if you are traveling with children. For the price it was just fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r384347026-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>384347026</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Night Before our Cruise</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel the night before our spring break cruise.  All the of the hotels in Galveston were outrageously expensive being spring break.  The hotel is a pretty new hotel and is close enough to Galveston to make it an easy drive to the port.  Rooms were clean.  Its a good place to stay for the value.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel the night before our spring break cruise.  All the of the hotels in Galveston were outrageously expensive being spring break.  The hotel is a pretty new hotel and is close enough to Galveston to make it an easy drive to the port.  Rooms were clean.  Its a good place to stay for the value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r383705184-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>383705184</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN!</t>
+  </si>
+  <si>
+    <t>After the loss of both my grandmother and grandfather, my mom &amp; her sisters decided to begin an annual reunion vacation in the Galveston area. Unfortunately, this year we chose this property as a cheaper alternative to some of the pricier options that we have used in the past. Well the old adage has proved true once again - "you get what you pay for".  Check-in went relatively smoothly (although there were some "policies" enforced that we have never heard of on previous visits to Choice hotels) but that was the end of our good fortune. The rooms were somewhat decent although my parents had a very disgusting sticky brown substance on their bathroom door and white "splashes" on the bed runner/scarf. My room had stains on the carpet, lounge chair, and foot stool. I also had a tattered lampshade and an electrical socket that was hanging from the wall. I was afraid to even attempt to use that.
+The next day, one of my cousins called the front desk to report that housekeeping had not cleaned their room. She was first told that this was because she had posted the do not disturb sign on the door. Once she assured them that this was not the case since she had placed her sign in her bathroom upon arrival, she was then told that it was not cleaned because she had just checked in the prior evening and was scheduled...After the loss of both my grandmother and grandfather, my mom &amp; her sisters decided to begin an annual reunion vacation in the Galveston area. Unfortunately, this year we chose this property as a cheaper alternative to some of the pricier options that we have used in the past. Well the old adage has proved true once again - "you get what you pay for".  Check-in went relatively smoothly (although there were some "policies" enforced that we have never heard of on previous visits to Choice hotels) but that was the end of our good fortune. The rooms were somewhat decent although my parents had a very disgusting sticky brown substance on their bathroom door and white "splashes" on the bed runner/scarf. My room had stains on the carpet, lounge chair, and foot stool. I also had a tattered lampshade and an electrical socket that was hanging from the wall. I was afraid to even attempt to use that.The next day, one of my cousins called the front desk to report that housekeeping had not cleaned their room. She was first told that this was because she had posted the do not disturb sign on the door. Once she assured them that this was not the case since she had placed her sign in her bathroom upon arrival, she was then told that it was not cleaned because she had just checked in the prior evening and was scheduled to be there for 4 nights and they didn't think she would need her room cleaned that day! Later that night,  we all returned to the hotel to get some rest after a LONG day of activities. After being in the room for approximately 30 minutes, one of my cousins received a call from the front desk telling her that she needed to keep it down because they had received several complaints of noise coming from her room throughout the night of kids stomping and screaming. This was NOT the case because her children were in bed at the time!  When we went down to inquire about the complaint and explain our position, the front desk attendant spoke in a very condescending and offensive manner. There were SEVERAL other issues that I could elaborate on including the lackluster breakfast, the filthy washing machines in the guest laundry facilities and intermittent WI-FI connectivity; however, I will simply end by stating that this hotel nearly ruined our family vacation and we will NEVER return!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>After the loss of both my grandmother and grandfather, my mom &amp; her sisters decided to begin an annual reunion vacation in the Galveston area. Unfortunately, this year we chose this property as a cheaper alternative to some of the pricier options that we have used in the past. Well the old adage has proved true once again - "you get what you pay for".  Check-in went relatively smoothly (although there were some "policies" enforced that we have never heard of on previous visits to Choice hotels) but that was the end of our good fortune. The rooms were somewhat decent although my parents had a very disgusting sticky brown substance on their bathroom door and white "splashes" on the bed runner/scarf. My room had stains on the carpet, lounge chair, and foot stool. I also had a tattered lampshade and an electrical socket that was hanging from the wall. I was afraid to even attempt to use that.
+The next day, one of my cousins called the front desk to report that housekeeping had not cleaned their room. She was first told that this was because she had posted the do not disturb sign on the door. Once she assured them that this was not the case since she had placed her sign in her bathroom upon arrival, she was then told that it was not cleaned because she had just checked in the prior evening and was scheduled...After the loss of both my grandmother and grandfather, my mom &amp; her sisters decided to begin an annual reunion vacation in the Galveston area. Unfortunately, this year we chose this property as a cheaper alternative to some of the pricier options that we have used in the past. Well the old adage has proved true once again - "you get what you pay for".  Check-in went relatively smoothly (although there were some "policies" enforced that we have never heard of on previous visits to Choice hotels) but that was the end of our good fortune. The rooms were somewhat decent although my parents had a very disgusting sticky brown substance on their bathroom door and white "splashes" on the bed runner/scarf. My room had stains on the carpet, lounge chair, and foot stool. I also had a tattered lampshade and an electrical socket that was hanging from the wall. I was afraid to even attempt to use that.The next day, one of my cousins called the front desk to report that housekeeping had not cleaned their room. She was first told that this was because she had posted the do not disturb sign on the door. Once she assured them that this was not the case since she had placed her sign in her bathroom upon arrival, she was then told that it was not cleaned because she had just checked in the prior evening and was scheduled to be there for 4 nights and they didn't think she would need her room cleaned that day! Later that night,  we all returned to the hotel to get some rest after a LONG day of activities. After being in the room for approximately 30 minutes, one of my cousins received a call from the front desk telling her that she needed to keep it down because they had received several complaints of noise coming from her room throughout the night of kids stomping and screaming. This was NOT the case because her children were in bed at the time!  When we went down to inquire about the complaint and explain our position, the front desk attendant spoke in a very condescending and offensive manner. There were SEVERAL other issues that I could elaborate on including the lackluster breakfast, the filthy washing machines in the guest laundry facilities and intermittent WI-FI connectivity; however, I will simply end by stating that this hotel nearly ruined our family vacation and we will NEVER return!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r352231740-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>352231740</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Clean and Basic</t>
+  </si>
+  <si>
+    <t>A little below standards for most of the Comfort Suites I have stayed at. The room was clean. Didn't have any view, no surprise it was Texas City. Breakfast had variety. The television reception in the room stunk. No HD poor picture and limited channels.No business computer for guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>A little below standards for most of the Comfort Suites I have stayed at. The room was clean. Didn't have any view, no surprise it was Texas City. Breakfast had variety. The television reception in the room stunk. No HD poor picture and limited channels.No business computer for guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r344546968-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>344546968</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>We stayed here while in town for my aunt's memorial service. It was very clean. The person behind the desk was personable and helpful. The breakfast buffet was very nice and the staff kept everything well-stocked. Bed was comfy as were the pillows.Lots of people stay there when going on a cruise.I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded February 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here while in town for my aunt's memorial service. It was very clean. The person behind the desk was personable and helpful. The breakfast buffet was very nice and the staff kept everything well-stocked. Bed was comfy as were the pillows.Lots of people stay there when going on a cruise.I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r341408085-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>341408085</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Met some family at this hotel as we prepared to go to Galveston for a cruise. Overall, the beds are comfortable and the room is clean, but the staff was unresponsive to our needs and the breakfast was inadequate. I had a little boy who was having to sleep on the floor and they would not provide a cot or more than one blanket for him. I was repeatedly told by the manager that he was "looking for a cot" but he never actually told me if he had found one or communicated. Probably wouldn't stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Met some family at this hotel as we prepared to go to Galveston for a cruise. Overall, the beds are comfortable and the room is clean, but the staff was unresponsive to our needs and the breakfast was inadequate. I had a little boy who was having to sleep on the floor and they would not provide a cot or more than one blanket for him. I was repeatedly told by the manager that he was "looking for a cot" but he never actually told me if he had found one or communicated. Probably wouldn't stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r327144106-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>327144106</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>In line with expectations</t>
+  </si>
+  <si>
+    <t>I was here for one night on business, the hotel was perfectly in line with what one would expect from a 2 star property. Clean and basic with no frills, I had everything I needed. The in room amenities were limited to a hair dryer and coffee maker along with the average travel size shampoo / conditioner and cheap off brand coffee.There was a small flat screen TV with basic cable channels, the bedding and linens were adequate and the hotel is located in a fairly quiet area of town, they do have free WIFI in the rooms although I found it to be rather slow.They offer a free but basic continental breakfast which I passed on in favor of more appealing options in town which are plentiful as well as close by.Nothing really remarkable to mention, if you are just looking for a clean, safe place to hang your hat for the evening this would be a good bet, If vacationing with beaches, shopping, and nightlife in mind there are far more exciting options a little further south on Galveston island. - Enjoy!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded January 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2016</t>
+  </si>
+  <si>
+    <t>I was here for one night on business, the hotel was perfectly in line with what one would expect from a 2 star property. Clean and basic with no frills, I had everything I needed. The in room amenities were limited to a hair dryer and coffee maker along with the average travel size shampoo / conditioner and cheap off brand coffee.There was a small flat screen TV with basic cable channels, the bedding and linens were adequate and the hotel is located in a fairly quiet area of town, they do have free WIFI in the rooms although I found it to be rather slow.They offer a free but basic continental breakfast which I passed on in favor of more appealing options in town which are plentiful as well as close by.Nothing really remarkable to mention, if you are just looking for a clean, safe place to hang your hat for the evening this would be a good bet, If vacationing with beaches, shopping, and nightlife in mind there are far more exciting options a little further south on Galveston island. - Enjoy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r324523942-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>324523942</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Really nice hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel price a little high because of area hot breakfast and nice staff love comfort suites hotel chain if going on cruise or just visiting the area this is the right hotel to stay at will return for sureMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel price a little high because of area hot breakfast and nice staff love comfort suites hotel chain if going on cruise or just visiting the area this is the right hotel to stay at will return for sureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r319191973-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>319191973</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Good enough</t>
+  </si>
+  <si>
+    <t>The room itself was quite comfortable- good bed, enough pillows, clean bathroom.  Breakfast was good, but not great.  Things that were supposed to be hot (sausage gravy) were warm and things that were supposed to be cold (milk) were warm too.  To be fair, we did show up in the last 15 minutes before breakfast closed.  Overall, a decent place at a decent price near Galveston and Space Center Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The room itself was quite comfortable- good bed, enough pillows, clean bathroom.  Breakfast was good, but not great.  Things that were supposed to be hot (sausage gravy) were warm and things that were supposed to be cold (milk) were warm too.  To be fair, we did show up in the last 15 minutes before breakfast closed.  Overall, a decent place at a decent price near Galveston and Space Center Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r296425707-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>296425707</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Approx.12 miles from Galveston Beaches!!!!</t>
+  </si>
+  <si>
+    <t>If you are looking for an excellent place to stay and affordable, THIS IS IT!!!! I was here for 2 nights and didn't break the bank. Very clean rooms, large fluffy towels and all the other things in the room to make your stay comfy. The staff was nice and accommodating.  Very quiet for being on a main road. The pool was AWESOME and private. Breakfast was filling with a nice variety. Don't hesitate to book here!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are looking for an excellent place to stay and affordable, THIS IS IT!!!! I was here for 2 nights and didn't break the bank. Very clean rooms, large fluffy towels and all the other things in the room to make your stay comfy. The staff was nice and accommodating.  Very quiet for being on a main road. The pool was AWESOME and private. Breakfast was filling with a nice variety. Don't hesitate to book here!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r288882696-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>288882696</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Very surprised and delighted!</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before our trip to the water park in Galveston which is only a 20 minute drive from this hotel and we were very happy! It was very clean, and comfortable. The breakfast was great also! No complaints and I am picky! I recommend MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before our trip to the water park in Galveston which is only a 20 minute drive from this hotel and we were very happy! It was very clean, and comfortable. The breakfast was great also! No complaints and I am picky! I recommend More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r286244565-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>286244565</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Close to Galveston is about the only positive</t>
+  </si>
+  <si>
+    <t>Booked online because of our cruise.  Overpriced and dirty is all that comes to mind.  The room smelled terrible.  STRONG moldy musty smell.  The other couple on the cruise with us walked into a dirty room.  There was a used wash rag still in the shower and the towels all had brown stains on them.  Breakfast was a nightmare.  Had to stand in line and fight for cold hard biscuits.  Would NEVER stay here again.  If you are just needing to spend the night before your cruise, stay in Kemah.  Only about 15 miles further and much more to do....and I'm sure the room wouldn't stink!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Booked online because of our cruise.  Overpriced and dirty is all that comes to mind.  The room smelled terrible.  STRONG moldy musty smell.  The other couple on the cruise with us walked into a dirty room.  There was a used wash rag still in the shower and the towels all had brown stains on them.  Breakfast was a nightmare.  Had to stand in line and fight for cold hard biscuits.  Would NEVER stay here again.  If you are just needing to spend the night before your cruise, stay in Kemah.  Only about 15 miles further and much more to do....and I'm sure the room wouldn't stink!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r275838706-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>275838706</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Horrid Smell</t>
+  </si>
+  <si>
+    <t>We stayed here four years ago and  the hotel was very nice. This year I walk in and there is an overwhelming smell of mold and must. I was hoping it was just in the lobby... Not the case. The room smelled awful. I asked if they had flooding during the storm and  they said no. Not sure what the smell was from. Gag...The staff were nice and pool was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here four years ago and  the hotel was very nice. This year I walk in and there is an overwhelming smell of mold and must. I was hoping it was just in the lobby... Not the case. The room smelled awful. I asked if they had flooding during the storm and  they said no. Not sure what the smell was from. Gag...The staff were nice and pool was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r274481961-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>274481961</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Nice, quiet</t>
+  </si>
+  <si>
+    <t>We spent a quiet Friday night at this hotel.Room was large,  nice beds, comfy carpet.  Only complaint was that it smelled musty. The management should run the air more often to keep the humidity down, since they're so near the coast.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r273060790-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>273060790</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights for a pre cruise. The hotel was clean and adequate for our stay. The staff was very friendly and helpful. The price was very reasonable. We left our car there and took a taxi into the Port of Galveston which end worked out great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r255850778-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>255850778</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, and Affordable Hotel</t>
+  </si>
+  <si>
+    <t>We only stayed here for 7 hours prior to a cruise out of Galveston on Carnival Magic.  We arrived at 3 in the morning and were greeted by the night staff.  The room was ready as promised, clean, roomy, and quite comfortable.  We enjoyed having such a nice place to stay for the low cost we paid.  We recommend this hotel to travelers.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r252014512-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>252014512</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Room smelled like dog urine?????????</t>
+  </si>
+  <si>
+    <t>As far as I know, this hotel is not a pet friendly hotel.  I stay at this hotel year round and everythingIs perfect including rooms, staff and service. I don't know what joy people get out of talking bad about someone's business without confirming their information.  shame on you missjo!!!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r247038549-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>247038549</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>No Regard to Guest safety!</t>
+  </si>
+  <si>
+    <t>This Hotel locks guests in at night not allowing guests to open the designated emergency exits doors after 10 PM. This exit is at the end of the hall near the accessible rooms. When I inquired about why they were locking the doors at night the Front Desk Man said that people have walked off with room TVs and Computers at night. I advised him that it was a violation of Fire Safety Code to secure fire exits. If there is ever an emergency where fire men have to come in or the police there will be loss of life. The windows are one piece no escaping through the windows either. The only way out would be through front doors... Please stay some place else. I will be reporting this violation to the Texas State Fire Marshal's office.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Hotel locks guests in at night not allowing guests to open the designated emergency exits doors after 10 PM. This exit is at the end of the hall near the accessible rooms. When I inquired about why they were locking the doors at night the Front Desk Man said that people have walked off with room TVs and Computers at night. I advised him that it was a violation of Fire Safety Code to secure fire exits. If there is ever an emergency where fire men have to come in or the police there will be loss of life. The windows are one piece no escaping through the windows either. The only way out would be through front doors... Please stay some place else. I will be reporting this violation to the Texas State Fire Marshal's office.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r237205676-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>237205676</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks just like the pictures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was very clean. No complaints.  Front desk help was great. Good breakfast.  Parking was tough lots of oilfield work truck, but they have to have a place to sleep too. Will stay again next time around. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r237126708-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>237126708</t>
+  </si>
+  <si>
+    <t>Great Pre-Cruise Hotel</t>
+  </si>
+  <si>
+    <t>I reserved this little find several months ago because we needed to be close to our cruise port in Galveston, TX.  Long story short, my family was very impressed with this hotel.  It was very busy when we arrived, and the receptionist was working as quickly as he could to get everyone checked in.  We made it to our rooms, and was amazed at how much space there was.  The rooms were nicely decorated, and the beds were super comfortable.  They had an excellent selection for breakfast the following morning.  The check-out receptionists were very pleasant and  helpful as well.  If I were to cruise out of Galveston again, I would definitely choose this hotel.  Thanks so much to the staff for such a wonderful stay for me and my family.MoreShow less</t>
+  </si>
+  <si>
+    <t>I reserved this little find several months ago because we needed to be close to our cruise port in Galveston, TX.  Long story short, my family was very impressed with this hotel.  It was very busy when we arrived, and the receptionist was working as quickly as he could to get everyone checked in.  We made it to our rooms, and was amazed at how much space there was.  The rooms were nicely decorated, and the beds were super comfortable.  They had an excellent selection for breakfast the following morning.  The check-out receptionists were very pleasant and  helpful as well.  If I were to cruise out of Galveston again, I would definitely choose this hotel.  Thanks so much to the staff for such a wonderful stay for me and my family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r235386428-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>235386428</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Perfectly fine for a Pre-Cruise hotel stay.</t>
+  </si>
+  <si>
+    <t>Arrived at 5pm and checked in quickly.  Our room looked as though it had been recently updated (new carpet, fresh paint, new shower surround) and seemed to be clean.  The de-odorizer smell was fresh and strong and by the next morning you could smell the stale smoke smell it was intended to hide.  Nothing to get too excited about but some people might not appreciate it.  The breakfast was nothing to write home about but not that bad either.  I'm guessing the owner/manager isn't a coffee drinker because it was very weak and tasteless.  I'd stay again just because it was much cheaper than anything else in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>gemsj, Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded October 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2014</t>
+  </si>
+  <si>
+    <t>Arrived at 5pm and checked in quickly.  Our room looked as though it had been recently updated (new carpet, fresh paint, new shower surround) and seemed to be clean.  The de-odorizer smell was fresh and strong and by the next morning you could smell the stale smoke smell it was intended to hide.  Nothing to get too excited about but some people might not appreciate it.  The breakfast was nothing to write home about but not that bad either.  I'm guessing the owner/manager isn't a coffee drinker because it was very weak and tasteless.  I'd stay again just because it was much cheaper than anything else in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r218912767-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>218912767</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>BAD CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>My family &amp; I stayed here for 1 night. Paid cash for our room, but gladly gave my credit card for incidentals. They charged my credit card $84.75 for 3 pillows 5 days after we checked out. When I called to inquiry about the charge and explain that we absolutely DID NOT take the pillows, the GM refuse to accept the idea that maybe her business could have made a mistake and basically called my family thieves. I ask for her to prove we took the pillows by providing the lobby video and she said she didn't have too!! She said it was her word against mine! My husband and I work to hard for our money, to just accept her word against mine!! So when I ask to speak to someone above her she couldn't give me their name &amp; number only their email, which was the email on my receipt, WHICH goes right back to HER, which would get me NOWHERE!! I feel that the GM was NO help and was not willing to futher assist me with getting my problem solved! I would NOT recommend this hotel to anyone unless you want to go through the trouble of getting a housekeeping staff to inventory your room WITH YOU BEFORE and AFTER you CHECKOUT. I wish I would have done this! We stay in hotels on a monthly basis and have NEVER had any issues. Never agian will...My family &amp; I stayed here for 1 night. Paid cash for our room, but gladly gave my credit card for incidentals. They charged my credit card $84.75 for 3 pillows 5 days after we checked out. When I called to inquiry about the charge and explain that we absolutely DID NOT take the pillows, the GM refuse to accept the idea that maybe her business could have made a mistake and basically called my family thieves. I ask for her to prove we took the pillows by providing the lobby video and she said she didn't have too!! She said it was her word against mine! My husband and I work to hard for our money, to just accept her word against mine!! So when I ask to speak to someone above her she couldn't give me their name &amp; number only their email, which was the email on my receipt, WHICH goes right back to HER, which would get me NOWHERE!! I feel that the GM was NO help and was not willing to futher assist me with getting my problem solved! I would NOT recommend this hotel to anyone unless you want to go through the trouble of getting a housekeeping staff to inventory your room WITH YOU BEFORE and AFTER you CHECKOUT. I wish I would have done this! We stay in hotels on a monthly basis and have NEVER had any issues. Never agian will I stay in another COMFORT INN &amp; SUITES.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>My family &amp; I stayed here for 1 night. Paid cash for our room, but gladly gave my credit card for incidentals. They charged my credit card $84.75 for 3 pillows 5 days after we checked out. When I called to inquiry about the charge and explain that we absolutely DID NOT take the pillows, the GM refuse to accept the idea that maybe her business could have made a mistake and basically called my family thieves. I ask for her to prove we took the pillows by providing the lobby video and she said she didn't have too!! She said it was her word against mine! My husband and I work to hard for our money, to just accept her word against mine!! So when I ask to speak to someone above her she couldn't give me their name &amp; number only their email, which was the email on my receipt, WHICH goes right back to HER, which would get me NOWHERE!! I feel that the GM was NO help and was not willing to futher assist me with getting my problem solved! I would NOT recommend this hotel to anyone unless you want to go through the trouble of getting a housekeeping staff to inventory your room WITH YOU BEFORE and AFTER you CHECKOUT. I wish I would have done this! We stay in hotels on a monthly basis and have NEVER had any issues. Never agian will...My family &amp; I stayed here for 1 night. Paid cash for our room, but gladly gave my credit card for incidentals. They charged my credit card $84.75 for 3 pillows 5 days after we checked out. When I called to inquiry about the charge and explain that we absolutely DID NOT take the pillows, the GM refuse to accept the idea that maybe her business could have made a mistake and basically called my family thieves. I ask for her to prove we took the pillows by providing the lobby video and she said she didn't have too!! She said it was her word against mine! My husband and I work to hard for our money, to just accept her word against mine!! So when I ask to speak to someone above her she couldn't give me their name &amp; number only their email, which was the email on my receipt, WHICH goes right back to HER, which would get me NOWHERE!! I feel that the GM was NO help and was not willing to futher assist me with getting my problem solved! I would NOT recommend this hotel to anyone unless you want to go through the trouble of getting a housekeeping staff to inventory your room WITH YOU BEFORE and AFTER you CHECKOUT. I wish I would have done this! We stay in hotels on a monthly basis and have NEVER had any issues. Never agian will I stay in another COMFORT INN &amp; SUITES.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r217866082-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>217866082</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Just Another Hotel to Lay your Head</t>
+  </si>
+  <si>
+    <t>We just got back from a long weekend away.  I chose this hotel based on reviews and convenience.  The hotel inside is clean.  The staff very efficient and friendly.  The outdoor pool is small, but was being used by smaller children.  I did not utilize the pool, hot tub, or fitness room (so no other comments). The hotel does have a mildew/moldy smell that was very noticeable.  I am not certain if it's due to humidity or something else.  We were on the second floor and the window had a lot of mold on the outside of the pane, as well as our air conditioner having it, too.  The room was very clean and bed was comfortable.  My husband ate the continental breakfast and he said it was very good.  (He will not stay at any hotel without continental breakfast and it must be a diverse breakfast, as he watches his diet.)MoreShow less</t>
+  </si>
+  <si>
+    <t>We just got back from a long weekend away.  I chose this hotel based on reviews and convenience.  The hotel inside is clean.  The staff very efficient and friendly.  The outdoor pool is small, but was being used by smaller children.  I did not utilize the pool, hot tub, or fitness room (so no other comments). The hotel does have a mildew/moldy smell that was very noticeable.  I am not certain if it's due to humidity or something else.  We were on the second floor and the window had a lot of mold on the outside of the pane, as well as our air conditioner having it, too.  The room was very clean and bed was comfortable.  My husband ate the continental breakfast and he said it was very good.  (He will not stay at any hotel without continental breakfast and it must be a diverse breakfast, as he watches his diet.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r217660676-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>217660676</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Called us thieves!!!</t>
+  </si>
+  <si>
+    <t>DO NOT sleep here gross wet floors hair everywhere. The room was never cooling off and five days after we stayed here they charged us for 3 pillows they said we stole $85. Tried to call them and was stone walled. I guess all we can do is accept the false charge and warn others. We are a family of 5, I am an Eagle Scout, Iraq and Afghanistan Vet, Staff Sergeant Non-commissioned officer. MY FAMILY DOESNT STEAL!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r215623071-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>215623071</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Nice!!</t>
+  </si>
+  <si>
+    <t>We enjoy our stay not far away from kemah and easy access to places to eat the kids enjoyed the pool breakfast was good the main hit with the kids the waffle which you make on your own front desk was so polite</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r215222177-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>215222177</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Will stay here again If NOTHING else is available</t>
+  </si>
+  <si>
+    <t>Family vacation to schlitterbahn waterpark and galveston beach is the reason we were in town. Searching for a hotel at the last minute landed us here. The hotel was easy to find just right off the highway, but nothing is close by. We had to drive 20-25 minutes to go eat, go to the beach, go to the stores, and schlitterbahn. Problems with this hotel: (1.) The room was big and the beds were comfortable however, there was HAIR EVERYWHERE!!! We found long strings of black hair on the pillows, in the tub, on the towels, on the sink, on the toilet, and even on the nightstand. We had 2 rooms so i IMMEDIATELY went over to the other room searching for hair, and YEAP it was there too!! NASTY!!!! We stopped at family dollar store on the way in and purchased bleach cleaning spray,  im glade that we did because i used it to clean both rooms. (2.) The hotel overview says that its a "Smoke Free" hotel......ITS NOT! Took the kids by the pool around 8pm after getting back from Galveston Beach that was DISGUSTING!!!! The pool visit ended quick, because there were people sitting around the pool smoking and drinking beer. Being that the pool is located right by the front desk, you would think that it would be monitored...NOT!! (3.) Breakfast.......the choices were okay however, the main hit is the waffles. They only have 1 waffle...Family vacation to schlitterbahn waterpark and galveston beach is the reason we were in town. Searching for a hotel at the last minute landed us here. The hotel was easy to find just right off the highway, but nothing is close by. We had to drive 20-25 minutes to go eat, go to the beach, go to the stores, and schlitterbahn. Problems with this hotel: (1.) The room was big and the beds were comfortable however, there was HAIR EVERYWHERE!!! We found long strings of black hair on the pillows, in the tub, on the towels, on the sink, on the toilet, and even on the nightstand. We had 2 rooms so i IMMEDIATELY went over to the other room searching for hair, and YEAP it was there too!! NASTY!!!! We stopped at family dollar store on the way in and purchased bleach cleaning spray,  im glade that we did because i used it to clean both rooms. (2.) The hotel overview says that its a "Smoke Free" hotel......ITS NOT! Took the kids by the pool around 8pm after getting back from Galveston Beach that was DISGUSTING!!!! The pool visit ended quick, because there were people sitting around the pool smoking and drinking beer. Being that the pool is located right by the front desk, you would think that it would be monitored...NOT!! (3.) Breakfast.......the choices were okay however, the main hit is the waffles. They only have 1 waffle maker so the wait is very long. The thing that annoyed me with this breakfast area is the size. It is so small and they have signs hanging everywhere that read "Do not remove any items from the breakfast area". Unless you wanna eat standing up, you must bring your items with you...which is what we did and ate in the room. (4.) The staff.....very nice and polite when checking in, but after that.........the majority of them have terrible attitudes. I hope this review helps you out some. If you can find somewhere else to stay do that, if not then stay here. Even though we had to drive everywhere, the drive was not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>Family vacation to schlitterbahn waterpark and galveston beach is the reason we were in town. Searching for a hotel at the last minute landed us here. The hotel was easy to find just right off the highway, but nothing is close by. We had to drive 20-25 minutes to go eat, go to the beach, go to the stores, and schlitterbahn. Problems with this hotel: (1.) The room was big and the beds were comfortable however, there was HAIR EVERYWHERE!!! We found long strings of black hair on the pillows, in the tub, on the towels, on the sink, on the toilet, and even on the nightstand. We had 2 rooms so i IMMEDIATELY went over to the other room searching for hair, and YEAP it was there too!! NASTY!!!! We stopped at family dollar store on the way in and purchased bleach cleaning spray,  im glade that we did because i used it to clean both rooms. (2.) The hotel overview says that its a "Smoke Free" hotel......ITS NOT! Took the kids by the pool around 8pm after getting back from Galveston Beach that was DISGUSTING!!!! The pool visit ended quick, because there were people sitting around the pool smoking and drinking beer. Being that the pool is located right by the front desk, you would think that it would be monitored...NOT!! (3.) Breakfast.......the choices were okay however, the main hit is the waffles. They only have 1 waffle...Family vacation to schlitterbahn waterpark and galveston beach is the reason we were in town. Searching for a hotel at the last minute landed us here. The hotel was easy to find just right off the highway, but nothing is close by. We had to drive 20-25 minutes to go eat, go to the beach, go to the stores, and schlitterbahn. Problems with this hotel: (1.) The room was big and the beds were comfortable however, there was HAIR EVERYWHERE!!! We found long strings of black hair on the pillows, in the tub, on the towels, on the sink, on the toilet, and even on the nightstand. We had 2 rooms so i IMMEDIATELY went over to the other room searching for hair, and YEAP it was there too!! NASTY!!!! We stopped at family dollar store on the way in and purchased bleach cleaning spray,  im glade that we did because i used it to clean both rooms. (2.) The hotel overview says that its a "Smoke Free" hotel......ITS NOT! Took the kids by the pool around 8pm after getting back from Galveston Beach that was DISGUSTING!!!! The pool visit ended quick, because there were people sitting around the pool smoking and drinking beer. Being that the pool is located right by the front desk, you would think that it would be monitored...NOT!! (3.) Breakfast.......the choices were okay however, the main hit is the waffles. They only have 1 waffle maker so the wait is very long. The thing that annoyed me with this breakfast area is the size. It is so small and they have signs hanging everywhere that read "Do not remove any items from the breakfast area". Unless you wanna eat standing up, you must bring your items with you...which is what we did and ate in the room. (4.) The staff.....very nice and polite when checking in, but after that.........the majority of them have terrible attitudes. I hope this review helps you out some. If you can find somewhere else to stay do that, if not then stay here. Even though we had to drive everywhere, the drive was not bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r211420398-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>211420398</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>Terrible Stay</t>
+  </si>
+  <si>
+    <t>Charged $10 for a rollaway bed and then made me roll it up to the room myself.  Hallways hadn't been vacuumed in a while.  There was dust and gunk buildup near the baseboards.  Cable connection was terrible.  Fuzzy/static connection.  When we tried to check out the next day the clerk wanted my American Express card.  Well, I paid with a MC.  Then she said, "oh, I see you paid with cash."  No, I paid with a MC. Then she said I owed $21 room fee.  No, I paid all fees on line.  She couldn't tell me why I owed it or what it was for.  She said I couldn't check out before I paid it.  She tried to call her manager and who said she could help me if I could wait 20 for her to get there.  I walked out and said they better not charge my card.  I guess I was never checked out of the room, b/c I never paid the $21.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Charged $10 for a rollaway bed and then made me roll it up to the room myself.  Hallways hadn't been vacuumed in a while.  There was dust and gunk buildup near the baseboards.  Cable connection was terrible.  Fuzzy/static connection.  When we tried to check out the next day the clerk wanted my American Express card.  Well, I paid with a MC.  Then she said, "oh, I see you paid with cash."  No, I paid with a MC. Then she said I owed $21 room fee.  No, I paid all fees on line.  She couldn't tell me why I owed it or what it was for.  She said I couldn't check out before I paid it.  She tried to call her manager and who said she could help me if I could wait 20 for her to get there.  I walked out and said they better not charge my card.  I guess I was never checked out of the room, b/c I never paid the $21.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r191852459-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>191852459</t>
+  </si>
+  <si>
+    <t>01/23/2014</t>
+  </si>
+  <si>
+    <t>"Clean &amp; Elegant - Great Stay"</t>
+  </si>
+  <si>
+    <t>Business trip for local chemical plant.  Arrived late at night and greeted by "Kyle" in a professional manner who made us feel welcome.  Place is clean and well maintained. Entire staff was friendly and the rooms were kept spotless daily.  I-Net was fast, Breakfast included real white cream gravy, fresh fruit etc. perfect for a working man. Even had hot coffee 24/7. Plenty of well lit parking too. Had a chance to chat with the owners prior to leaving - nice folks.   Recommend staying here above any others in the area. They were Right on the price, Right on the location and Right on the accommodations.   Only thing I'd change - I'd bring my own pillow (mostly because I'm spoiled)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Business trip for local chemical plant.  Arrived late at night and greeted by "Kyle" in a professional manner who made us feel welcome.  Place is clean and well maintained. Entire staff was friendly and the rooms were kept spotless daily.  I-Net was fast, Breakfast included real white cream gravy, fresh fruit etc. perfect for a working man. Even had hot coffee 24/7. Plenty of well lit parking too. Had a chance to chat with the owners prior to leaving - nice folks.   Recommend staying here above any others in the area. They were Right on the price, Right on the location and Right on the accommodations.   Only thing I'd change - I'd bring my own pillow (mostly because I'm spoiled)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r186115789-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>186115789</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>Nice stop before cruise</t>
+  </si>
+  <si>
+    <t>We had a family cruise with 3 generations for November 17 out of Galveston Tx. So we met at Comfort Inn in Texas City to make sure there were no travel problems to get to Galveston. Because it was difficult to get 3 rooms in the same hotel in Galveston without breaking the bank, we chose Comfort Inn in Texas City. We requested a handicap room and were not disappointed. The rooms were all large and on the first floor which made it convenient for the family to meet. Everything was clean. Our TV broke and the management promptly supplied a replacement which was excellent. The location is not the best nor is it a resort, but the hotel was clean, the spa was warm and refreshing. And our key requirement is that it be close to Galveston so we could have an relaxed trip to our cruise.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We had a family cruise with 3 generations for November 17 out of Galveston Tx. So we met at Comfort Inn in Texas City to make sure there were no travel problems to get to Galveston. Because it was difficult to get 3 rooms in the same hotel in Galveston without breaking the bank, we chose Comfort Inn in Texas City. We requested a handicap room and were not disappointed. The rooms were all large and on the first floor which made it convenient for the family to meet. Everything was clean. Our TV broke and the management promptly supplied a replacement which was excellent. The location is not the best nor is it a resort, but the hotel was clean, the spa was warm and refreshing. And our key requirement is that it be close to Galveston so we could have an relaxed trip to our cruise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r182684030-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>182684030</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>Stayed here multiple times, always pleased.</t>
+  </si>
+  <si>
+    <t>I haven't reviewed this location in a while so I was surprised to read the two negative ones. I suspect one of those reviews was written by a teen just by the wording. Okay, here goes an update. I absolutely cannot understand a negative review on this hotel. I think we've stayed here about 6 or 7 times now, not always the same room, of course, and never even remotely got something bad. As I said before, I am very particular. The rooms are spotless, always fully stocked. I've never even seen a broken hinge on anything in a room. The outside is neat as a pin. Mostly cruisers staying here I suspect. I met two ladies this past weekend who were heading out on a Disney cruise. As far as the front desk staff goes, maybe I'm spoiled as a regular, but they are all super nice and chatty with me. I find the younger man, Kyle, to have some of the best manners I have ever seen. I actually met the owner this weekend too. Haven't seen them before but they were up working on Sunday morn. Here's the summary, perfect room, friendly staff, no riff raff, clean outside, quiet, close to everything, good rates. I've stayed several times, if this were a dud, I would know it!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>gemsj, General Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2013</t>
+  </si>
+  <si>
+    <t>I haven't reviewed this location in a while so I was surprised to read the two negative ones. I suspect one of those reviews was written by a teen just by the wording. Okay, here goes an update. I absolutely cannot understand a negative review on this hotel. I think we've stayed here about 6 or 7 times now, not always the same room, of course, and never even remotely got something bad. As I said before, I am very particular. The rooms are spotless, always fully stocked. I've never even seen a broken hinge on anything in a room. The outside is neat as a pin. Mostly cruisers staying here I suspect. I met two ladies this past weekend who were heading out on a Disney cruise. As far as the front desk staff goes, maybe I'm spoiled as a regular, but they are all super nice and chatty with me. I find the younger man, Kyle, to have some of the best manners I have ever seen. I actually met the owner this weekend too. Haven't seen them before but they were up working on Sunday morn. Here's the summary, perfect room, friendly staff, no riff raff, clean outside, quiet, close to everything, good rates. I've stayed several times, if this were a dud, I would know it!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r172556186-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>172556186</t>
+  </si>
+  <si>
+    <t>08/16/2013</t>
+  </si>
+  <si>
+    <t>Management needs work BEWARE do not go here!!!!</t>
+  </si>
+  <si>
+    <t>I wouldn't recommend my dog to sleep here. Management was rude cant find their butts with both hands. Room was dirty will never book with them again. The room smelled of curry. That should tell you enough to not stay there. Worse place in history.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r171414784-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>171414784</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>I needed extra blankets (2)</t>
+  </si>
+  <si>
+    <t>All we needed was 2 extra blankets...we stayed 3 nights paid in advance....I was told by the night clerk that she couldn't give me the extra blankets because she was saving them for a reservation that would be coming in that night.  Specifically for a suite...which had a pull out bed with no linen or blankets...and she only had three...so I ask for one and she still said no...????Really are there no extra blankets for a paying customer?  The woman was curt!   Earlier that day it seemed the head maid was behind the desk...and I asked her if we could get fresh towels and she was rather curt as well...from other reviews it seems the maids are running the place....very disappointed and will not come here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>All we needed was 2 extra blankets...we stayed 3 nights paid in advance....I was told by the night clerk that she couldn't give me the extra blankets because she was saving them for a reservation that would be coming in that night.  Specifically for a suite...which had a pull out bed with no linen or blankets...and she only had three...so I ask for one and she still said no...????Really are there no extra blankets for a paying customer?  The woman was curt!   Earlier that day it seemed the head maid was behind the desk...and I asked her if we could get fresh towels and she was rather curt as well...from other reviews it seems the maids are running the place....very disappointed and will not come here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r161937624-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>161937624</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Clean hotel, large room only one downfall...</t>
+  </si>
+  <si>
+    <t>Booked room on Orbitz. Upon check-in was asked for credit card. I was told there would b a $100 hold for incidents placed on the card. Orbitz did not inform of this charge. This was not anything I have ever experienced. Otherwise, nice property &amp; room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r154705046-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>154705046</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Not one thing even remotely to complain about!</t>
+  </si>
+  <si>
+    <t>I'm shocked at some of the other reviews! But, everyone's perceptions are different. I'm very particular, we stayed at this location in May of 2012. We are back again. I have to add that this is Spring Break weekend just a few miles from Galveston. Thus, if a problem were going to occur, this would be the time. There's just a few things I must say in the beginning. No fan in the bathroom, I just cannot see that as a worthy point to even put down as one reviewer did. That is just me. Alex, at the front desk, he's a young guy, but was very friendly at chatty. Not sure why he was described as rude.  The rooms, they are immaculate. We have just came back in from being gone all day, the room is spotless. There are no broken drawers, lamps, hinges, deco is nice, snack area is clean, parking lot is safe. As far as no restaurants near by as one reviewer said, well, they didn't a block down and turn. There are too many to choose from. Bottom line, if going to Galveston, just stay here. Moderately priced Galveston locations (if there is such a thing) are usually rooms that have been ravaged by teens. This  is a "grown up" hotel here. You won't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I'm shocked at some of the other reviews! But, everyone's perceptions are different. I'm very particular, we stayed at this location in May of 2012. We are back again. I have to add that this is Spring Break weekend just a few miles from Galveston. Thus, if a problem were going to occur, this would be the time. There's just a few things I must say in the beginning. No fan in the bathroom, I just cannot see that as a worthy point to even put down as one reviewer did. That is just me. Alex, at the front desk, he's a young guy, but was very friendly at chatty. Not sure why he was described as rude.  The rooms, they are immaculate. We have just came back in from being gone all day, the room is spotless. There are no broken drawers, lamps, hinges, deco is nice, snack area is clean, parking lot is safe. As far as no restaurants near by as one reviewer said, well, they didn't a block down and turn. There are too many to choose from. Bottom line, if going to Galveston, just stay here. Moderately priced Galveston locations (if there is such a thing) are usually rooms that have been ravaged by teens. This  is a "grown up" hotel here. You won't be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r152051338-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>152051338</t>
+  </si>
+  <si>
+    <t>02/13/2013</t>
+  </si>
+  <si>
+    <t>Super clean room!</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise left Galveston. I must say that the room and bathroom were absolutely the cleanest room that I have ever had in a motel/hotel. The breakfast was the standard fare. The staff was friendly but we had a little trouble checking in as the desk clerk had to leave to make up some rooms! They were helpful in giving us suggestions on dining. The room as spacious and overall I was VERY pleased.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r134149004-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>134149004</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Hotel Personnel was great!</t>
+  </si>
+  <si>
+    <t>The hotel overall was a nice hotel.  It has a great outdoor pool.  The only problem we had was the hotel didn't have a shower chair available.  We asked the front desk about this problem and even though they didn't have one available they went and bought one for us to have the next morning.  Alex was very helpful!  This hotel was very reasonable in price if you do the advance price.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r117130375-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>117130375</t>
+  </si>
+  <si>
+    <t>08/23/2011</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>This is oil field area so you are going to pay a high price of a room.  Book ahead or you could be staying in your car - especially during the week.  This is a nice and safe place to stay.  You may want to avoid priceline in West Texas on Highway 10 especially.  You may get a dog of a room and won't save that much either.  Pay and be safe.  Know what you are getting or you could get burned.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r115919370-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>115919370</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>so nice a wonderful stay</t>
+  </si>
+  <si>
+    <t>this a wonderful hotel we stay as a anniversary weekend the room was nice and cold and the pool was nice the breakfast was awesome you can make your own waffle which was the shape of texas so cool i will be back soon..</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r115914933-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>115914933</t>
+  </si>
+  <si>
+    <t>So, so...</t>
+  </si>
+  <si>
+    <t>While the hotel is new and nice the service was so, so. Our room was not cleaned on one occasion. There were no towels for the pool area one evening nor did the pool seem to be cleaned and we were there three days and swam or used the jacuzzi all three days. Also the breakfast offerings were lacking.Breakfast area freshness of the food was questionable, the boiled eggs were spoiled, the fruit was soft. Bananas were brown and squishy and apples were soft. The cereal was stale, and so were the danishes. Very disappointed and yes, we did bring it to the attention of the attendant(s). Yep there were attendants, ALL the housekeeping staff was in the breakfast area eating waffles and having coffee they seem like no big deal and no changes were made for the next day, same spoiled eggs and stale cereal were in the containers on day three.While the location is good, if we return to the area we will most likely not stay here again, there is better to be had for the same money. I am not that hard to please but the so so accommodations, unfriendliness/unresponsiveness of staff and unappealing breakfast just makes me think try somewhere else next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>While the hotel is new and nice the service was so, so. Our room was not cleaned on one occasion. There were no towels for the pool area one evening nor did the pool seem to be cleaned and we were there three days and swam or used the jacuzzi all three days. Also the breakfast offerings were lacking.Breakfast area freshness of the food was questionable, the boiled eggs were spoiled, the fruit was soft. Bananas were brown and squishy and apples were soft. The cereal was stale, and so were the danishes. Very disappointed and yes, we did bring it to the attention of the attendant(s). Yep there were attendants, ALL the housekeeping staff was in the breakfast area eating waffles and having coffee they seem like no big deal and no changes were made for the next day, same spoiled eggs and stale cereal were in the containers on day three.While the location is good, if we return to the area we will most likely not stay here again, there is better to be had for the same money. I am not that hard to please but the so so accommodations, unfriendliness/unresponsiveness of staff and unappealing breakfast just makes me think try somewhere else next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r57445674-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>57445674</t>
+  </si>
+  <si>
+    <t>03/01/2010</t>
+  </si>
+  <si>
+    <t>Will defenetely book in again!</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights, the rooms were neat and clean, view is not that good, but we didn't spend much time there, front desk personnel was friendly, loved the swimming pool, also Galveston Island and Kemmah is close from there. I will defenetely book in again!</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r22271992-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>22271992</t>
+  </si>
+  <si>
+    <t>11/28/2008</t>
+  </si>
+  <si>
+    <t>There are other places to stay.</t>
+  </si>
+  <si>
+    <t>Staff inattentive, breakfast short on items common at most Comfort Inns, housekeeping does the minimum. Rooms are very nice, internet spotty. If you're just passing through, this place is ok. If you're in for the long haul, look elsewhere. I stayed  few weeks, but moved 8 miles away to a much nicer spot. For the biz traveler, the rate isn't the thing - it's the extras. And this place is very short on extras.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r17739470-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>17739470</t>
+  </si>
+  <si>
+    <t>07/09/2008</t>
+  </si>
+  <si>
+    <t>Very comfortable room!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel using our "Choice Priviledge" points.  This property had only been open for a short period of time, and we were able to get a really nice jaccuzzi room with our points.  The young lady who checked us in was very personable, and our room was clean and comfortable, and I LOVED the jaccuzzi!  Breakfast was a little bit of a disappointment as there was very little food out and not much variety: sausage, but no eggs and no yogurt.  Also, could not find anyone who was attending the breakfast area so we were not sure if there was more food on the way.  Since this was a new hotel, I am sure they were still working out some bugs, and I would definitely go back at a future date.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel using our "Choice Priviledge" points.  This property had only been open for a short period of time, and we were able to get a really nice jaccuzzi room with our points.  The young lady who checked us in was very personable, and our room was clean and comfortable, and I LOVED the jaccuzzi!  Breakfast was a little bit of a disappointment as there was very little food out and not much variety: sausage, but no eggs and no yogurt.  Also, could not find anyone who was attending the breakfast area so we were not sure if there was more food on the way.  Since this was a new hotel, I am sure they were still working out some bugs, and I would definitely go back at a future date.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1923,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1955,4094 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>82</v>
+      </c>
+      <c r="X12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>191</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>230</v>
+      </c>
+      <c r="X25" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>260</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>268</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>269</v>
+      </c>
+      <c r="X28" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>277</v>
+      </c>
+      <c r="O29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>278</v>
+      </c>
+      <c r="X29" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>282</v>
+      </c>
+      <c r="J30" t="s">
+        <v>283</v>
+      </c>
+      <c r="K30" t="s">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s">
+        <v>285</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>278</v>
+      </c>
+      <c r="X30" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>293</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>278</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>286</v>
+      </c>
+      <c r="O32" t="s">
+        <v>100</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>312</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>278</v>
+      </c>
+      <c r="X34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>314</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>315</v>
+      </c>
+      <c r="J35" t="s">
+        <v>316</v>
+      </c>
+      <c r="K35" t="s">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s">
+        <v>318</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>327</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37" t="s">
+        <v>330</v>
+      </c>
+      <c r="K37" t="s">
+        <v>331</v>
+      </c>
+      <c r="L37" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>327</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>336</v>
+      </c>
+      <c r="L38" t="s">
+        <v>337</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>338</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>340</v>
+      </c>
+      <c r="J39" t="s">
+        <v>341</v>
+      </c>
+      <c r="K39" t="s">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s">
+        <v>343</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>344</v>
+      </c>
+      <c r="O39" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>344</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>352</v>
+      </c>
+      <c r="J41" t="s">
+        <v>353</v>
+      </c>
+      <c r="K41" t="s">
+        <v>354</v>
+      </c>
+      <c r="L41" t="s">
+        <v>355</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>356</v>
+      </c>
+      <c r="O41" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" t="s">
+        <v>353</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>356</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" t="s">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s">
+        <v>366</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>356</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>367</v>
+      </c>
+      <c r="X43" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>375</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>375</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>383</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>384</v>
+      </c>
+      <c r="J46" t="s">
+        <v>385</v>
+      </c>
+      <c r="K46" t="s">
+        <v>386</v>
+      </c>
+      <c r="L46" t="s">
+        <v>387</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" t="s">
+        <v>392</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>394</v>
+      </c>
+      <c r="J48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>396</v>
+      </c>
+      <c r="L48" t="s">
+        <v>397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>375</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>404</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" t="s">
+        <v>408</v>
+      </c>
+      <c r="K50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>411</v>
+      </c>
+      <c r="O50" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>413</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>414</v>
+      </c>
+      <c r="J51" t="s">
+        <v>415</v>
+      </c>
+      <c r="K51" t="s">
+        <v>416</v>
+      </c>
+      <c r="L51" t="s">
+        <v>417</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>418</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>420</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>421</v>
+      </c>
+      <c r="J52" t="s">
+        <v>422</v>
+      </c>
+      <c r="K52" t="s">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s">
+        <v>424</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>425</v>
+      </c>
+      <c r="O52" t="s">
+        <v>100</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>426</v>
+      </c>
+      <c r="X52" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>430</v>
+      </c>
+      <c r="J53" t="s">
+        <v>431</v>
+      </c>
+      <c r="K53" t="s">
+        <v>432</v>
+      </c>
+      <c r="L53" t="s">
+        <v>433</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>434</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>435</v>
+      </c>
+      <c r="J54" t="s">
+        <v>436</v>
+      </c>
+      <c r="K54" t="s">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s">
+        <v>438</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>439</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>441</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>442</v>
+      </c>
+      <c r="J55" t="s">
+        <v>443</v>
+      </c>
+      <c r="K55" t="s">
+        <v>444</v>
+      </c>
+      <c r="L55" t="s">
+        <v>445</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>447</v>
+      </c>
+      <c r="J56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K56" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" t="s">
+        <v>450</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s">
+        <v>100</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>454</v>
+      </c>
+      <c r="J57" t="s">
+        <v>455</v>
+      </c>
+      <c r="K57" t="s">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s">
+        <v>457</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>81</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>459</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J58" t="s">
+        <v>461</v>
+      </c>
+      <c r="K58" t="s">
+        <v>462</v>
+      </c>
+      <c r="L58" t="s">
+        <v>463</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>464</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>465</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>466</v>
+      </c>
+      <c r="J59" t="s">
+        <v>467</v>
+      </c>
+      <c r="K59" t="s">
+        <v>468</v>
+      </c>
+      <c r="L59" t="s">
+        <v>469</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>470</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>471</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>472</v>
+      </c>
+      <c r="J60" t="s">
+        <v>473</v>
+      </c>
+      <c r="K60" t="s">
+        <v>474</v>
+      </c>
+      <c r="L60" t="s">
+        <v>475</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>476</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+      <c r="K61" t="s">
+        <v>479</v>
+      </c>
+      <c r="L61" t="s">
+        <v>480</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>481</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>483</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>484</v>
+      </c>
+      <c r="J62" t="s">
+        <v>485</v>
+      </c>
+      <c r="K62" t="s">
+        <v>486</v>
+      </c>
+      <c r="L62" t="s">
+        <v>487</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>488</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>489</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>490</v>
+      </c>
+      <c r="J63" t="s">
+        <v>491</v>
+      </c>
+      <c r="K63" t="s">
+        <v>492</v>
+      </c>
+      <c r="L63" t="s">
+        <v>493</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>494</v>
+      </c>
+      <c r="O63" t="s">
+        <v>100</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>495</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>496</v>
+      </c>
+      <c r="J64" t="s">
+        <v>497</v>
+      </c>
+      <c r="K64" t="s">
+        <v>498</v>
+      </c>
+      <c r="L64" t="s">
+        <v>499</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>500</v>
+      </c>
+      <c r="O64" t="s">
+        <v>100</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_99.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_99.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="783">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r602360473-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>1026224</t>
+  </si>
+  <si>
+    <t>602360473</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Second Time Staying Here</t>
+  </si>
+  <si>
+    <t>We only booked for one night. It is conveniently located to where we had to be. Our room was clean and had everything we needed. It has coffee pot, microwave, refrigerator, and the AC works. I have read past reviews of other Comfort Inns/Quality and I found nothing wrong with this one in Texas City, Texas. We will stay here again if we need to.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We only booked for one night. It is conveniently located to where we had to be. Our room was clean and had everything we needed. It has coffee pot, microwave, refrigerator, and the AC works. I have read past reviews of other Comfort Inns/Quality and I found nothing wrong with this one in Texas City, Texas. We will stay here again if we need to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r600885748-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>600885748</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NIce hotel</t>
+  </si>
+  <si>
+    <t>Very nice hotel Typical comfort inn Clean abd breakfast had usual items at hotelNice employeesWe went on way to cruise  perfect stop over from Missouri Easy to find. Easy check in Always smiling face as we returned from dinner. Helpful as to where to eat dinnerMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Very nice hotel Typical comfort inn Clean abd breakfast had usual items at hotelNice employeesWe went on way to cruise  perfect stop over from Missouri Easy to find. Easy check in Always smiling face as we returned from dinner. Helpful as to where to eat dinnerMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r594218414-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
-    <t>56761</t>
-  </si>
-  <si>
-    <t>1026224</t>
-  </si>
-  <si>
     <t>594218414</t>
   </si>
   <si>
@@ -174,16 +228,10 @@
     <t>Wish I would have read the reviews before booking...the musty smell was terrible the next day my legs were covered in itchy red bites..I didn’t look for signs of bugs but can tell I was Bitten in clusters.I have no experience with bed bugs but after reading about them,one sign is a musty smell. Though I cannot say for absolute positivity I saw any I can defiantly tell something bitten like crazy. Went down for breakfast and went to grab a muffin and saw a fly in the case with the breads. Left immediately and will not return.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Nerissa M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Nerissa M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
   </si>
   <si>
     <t>Wish I would have read the reviews before booking...the musty smell was terrible the next day my legs were covered in itchy red bites..I didn’t look for signs of bugs but can tell I was Bitten in clusters.I have no experience with bed bugs but after reading about them,one sign is a musty smell. Though I cannot say for absolute positivity I saw any I can defiantly tell something bitten like crazy. Went down for breakfast and went to grab a muffin and saw a fly in the case with the breads. Left immediately and will not return.More</t>
@@ -243,6 +291,57 @@
     <t>A Very Worn Down Hotel. We switched rooms twice right away because they had a very strong, musty odor. The lady at the front desk was very understanding. While the third room didn't smell, there were dings and dents everywhere, dirt on walls, mascara on the half pillows. So, maybe it's the luck of the draw but all three rooms were a bust for me.Also, don't even think about eating the breakfast.(or lack of) spoiled milk and stale muffins with powered eggs.The only positives I can say is. The rooms are Large. (2 queens) The young ladies at the front desk are very friendly. They have microwaves and refrigerators. That's it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r570785256-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>570785256</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Would give 3.5 stars</t>
+  </si>
+  <si>
+    <t>Receptionist at Check-in was friendly.  The room at first glance was remodeled but there was a hole in the ceiling from water damage that took that down a notch. Some  mold in the shower but not enough to change rooms. Kids were continually running up and down the halls but I fault the parents for that.  Some amenities not available due to construction.  The business center computer worked with free printing.  Breakfast was well stocked and had some hot items.  Just need to pay attention to the ceilings in the rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Receptionist at Check-in was friendly.  The room at first glance was remodeled but there was a hole in the ceiling from water damage that took that down a notch. Some  mold in the shower but not enough to change rooms. Kids were continually running up and down the halls but I fault the parents for that.  Some amenities not available due to construction.  The business center computer worked with free printing.  Breakfast was well stocked and had some hot items.  Just need to pay attention to the ceilings in the rooms. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r561802529-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>561802529</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>perfect pre-cruise hotel</t>
+  </si>
+  <si>
+    <t>We were cruising out of Galveston on Sunday so we booked this hotel for Saturday night.  I was a little leary due to some of the reviews I read.  There was no need for worry.  It was clean and updated beds.  The carpet needed a good stretching but everything else was fine.  It was pretty loud outside our room in the hall during the night.  I'm sure it was just some people who have no idea others are sleeping and probably not typical.  We would definitely stay there again when cruising out of Galveston.  It's only about 20 min from the port yet 1/2 the price of Galveston Hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>We were cruising out of Galveston on Sunday so we booked this hotel for Saturday night.  I was a little leary due to some of the reviews I read.  There was no need for worry.  It was clean and updated beds.  The carpet needed a good stretching but everything else was fine.  It was pretty loud outside our room in the hall during the night.  I'm sure it was just some people who have no idea others are sleeping and probably not typical.  We would definitely stay there again when cruising out of Galveston.  It's only about 20 min from the port yet 1/2 the price of Galveston Hotels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r548577151-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -261,15 +360,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Tina M, Guest Relations Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded March 8, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 8, 2018</t>
-  </si>
-  <si>
     <t>We stayed for 2 nights, the rooms were neat and clean, view is not that good, but we didn't spend much time there, front desk personnel was friendly, loved the swimming pool, also Galveston Island and Kemmah is close from there.More</t>
   </si>
   <si>
@@ -330,6 +420,51 @@
     <t>They checked me into a room that had a bad odor and after it started making me sick, I realized it was mold.  I checked into the room after 8pm and had to leave before midnight and the manager has made no attempt to make amends.  I suspect that this hotel may have had damages as a result of hurricane Harvey and are renting water damaged rooms to the unsuspecting public. If you can avoid it, DO NOT STAY HERE!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r511594811-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>511594811</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I stayed here my last 2 days visiting Galveston.  The hotel was quiet, clean, and comfortable and the staff were pleasant and helpful.  Only about a 20 minute drive to Galveston Island with nearby restaurants and shopping as well.  My only criticisms: 1)  the hot tub wasn't hot enough nor working and 2) the T.V. remote was a pain to use.  Other than that, good stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here my last 2 days visiting Galveston.  The hotel was quiet, clean, and comfortable and the staff were pleasant and helpful.  Only about a 20 minute drive to Galveston Island with nearby restaurants and shopping as well.  My only criticisms: 1)  the hot tub wasn't hot enough nor working and 2) the T.V. remote was a pain to use.  Other than that, good stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r505122502-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>505122502</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Horrible never again</t>
+  </si>
+  <si>
+    <t>First off our reservation was cancelled and it was a hassle to get it fixed. When we finally checked in our room and pulled out the sofa bed for my children we found animal crackers and taco bell food paper from previous guests.  The front desk is extremely rude and when confronted with details of room and rudeness of staff he made excuses. After our first night housekeeping took our 4 towels and replaced them with 3 big and 1 small towel. When asked for more we were told to bring down old ones first. Let her know that housekeeping took them and she proceeded to catch an attitude and basically acted like we were stealing towels. This was a first vacation with my family and this hotel really ruined the experience for us. Never again will we stay here. Jacuzzi was broken...and cops had to be called for our neighbors for noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>First off our reservation was cancelled and it was a hassle to get it fixed. When we finally checked in our room and pulled out the sofa bed for my children we found animal crackers and taco bell food paper from previous guests.  The front desk is extremely rude and when confronted with details of room and rudeness of staff he made excuses. After our first night housekeeping took our 4 towels and replaced them with 3 big and 1 small towel. When asked for more we were told to bring down old ones first. Let her know that housekeeping took them and she proceeded to catch an attitude and basically acted like we were stealing towels. This was a first vacation with my family and this hotel really ruined the experience for us. Never again will we stay here. Jacuzzi was broken...and cops had to be called for our neighbors for noise.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r495934074-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -403,6 +538,60 @@
   </si>
   <si>
     <t>This is a very nice motel and is very convenient to the cruise port. The pool area was clean and they let us stay a little past the 10pm closure. They did not ask us to leave but we did so no one would get in trouble. Breakfast was averageMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r485701397-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>485701397</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Great Alternative for Pre Cruise Stay</t>
+  </si>
+  <si>
+    <t>We decided to try staying somewhere near the port but off the island for better price.  Selected Comfort Inn in Texas City and were not disappointed.  It's about a 15-20 minute drive to the port.  Clean, spacious room, good water pressure and A/C worked great.  Continental breakfast wasn't any better or any worse than most I've had. Staff was friendly and efficient. Only negative is it is really hard to get out of parking lot onto Hwy 146 due to traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>We decided to try staying somewhere near the port but off the island for better price.  Selected Comfort Inn in Texas City and were not disappointed.  It's about a 15-20 minute drive to the port.  Clean, spacious room, good water pressure and A/C worked great.  Continental breakfast wasn't any better or any worse than most I've had. Staff was friendly and efficient. Only negative is it is really hard to get out of parking lot onto Hwy 146 due to traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r478665716-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>478665716</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>It is an Average Hotel</t>
+  </si>
+  <si>
+    <t>We were early for the 3pm check-in, and could not check-in. but since we had to be somewhere at 2pm, I asked if they had a restroom that we could use to freshen up. She said they did.  We arrived back to the hotel early in the night and were given our room key. The room is nice and large, bath has a tub w/ shower, ample towels. Bed was comfortable. Coffee pot and small refrigerator. Husband went down for breakfast, below average, go find a restaurant serving breakfast. They also have Wi-Fi for guests.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>We were early for the 3pm check-in, and could not check-in. but since we had to be somewhere at 2pm, I asked if they had a restroom that we could use to freshen up. She said they did.  We arrived back to the hotel early in the night and were given our room key. The room is nice and large, bath has a tub w/ shower, ample towels. Bed was comfortable. Coffee pot and small refrigerator. Husband went down for breakfast, below average, go find a restaurant serving breakfast. They also have Wi-Fi for guests.  We would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r469409826-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
@@ -470,6 +659,57 @@
     <t>After spending a long day of travel and a day full of meetings, I booked a room at the comfort inn. My room was clean at first glance and staff was friendly. Felt like I had made a good decision. As I'm getting ready for bed, I noted the sheets actually had sneaker prints on them as if someone had stepped on the pillowcases and sheets. Up until that point I felt I had made a good choice with my stay. A family staying down the hall with lots of small kids ran up and down the hallway most of the night giggling running screaming and yelling. Apparently no parenting involved in that one LOL. The bed however was comfortable, I just didn't sleep on the sneaker printed part of the sheet. Given the proximity to where I needed to be early in the morning, I was too tired to care too much about the little idiosyncrasies of room not found to be perfect.  Hotel was reasonably priced and once the loud family settle down offered a comfortable night sleep. I would stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r467416985-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>467416985</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Pre cruise stay</t>
+  </si>
+  <si>
+    <t>Stayed here the night before a cruise. This hotel was just minutes away from Galveston. The price and short distance from the cruise port made it an easy decision. Nice hotel and friendly staff. Will stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here the night before a cruise. This hotel was just minutes away from Galveston. The price and short distance from the cruise port made it an easy decision. Nice hotel and friendly staff. Will stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r464894265-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>464894265</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location the night before your cruise. </t>
+  </si>
+  <si>
+    <t>The hotels in Galveston are too pricey. You get a reasonable rate and comfortable, up to date accommodations here in Texas City.  Near by is a fabulous Mexican restaurant- Gringos which was a wonderful bonus!MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>The hotels in Galveston are too pricey. You get a reasonable rate and comfortable, up to date accommodations here in Texas City.  Near by is a fabulous Mexican restaurant- Gringos which was a wonderful bonus!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r463782249-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -546,6 +786,57 @@
   </si>
   <si>
     <t>Hotel had a good price for a weekend night.  There was not much too do in the area. The price difference from here and galveston was well worth it. Friendly check in, clean rooms, good breakfast. If you  need a decent place too stay for a good price before a cruise, it's a good choice More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r450512274-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>450512274</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Come here for my crusing needs</t>
+  </si>
+  <si>
+    <t>My wife and I have been coming to this comfort Inn for several years now.  It is good, comfortable, roomy, and a straight shot down the road to Galveston for catching cruises or any type of activity you may have locally. Pros :Comfortable and roomy rooms. A good breakfast offered in the morningBreakfast area open,  plenty of seatingHot tub and poolLaundry room and exercise roomFriendly staff And as mentioned,  placed right on 146 highway which merges easily on to i45 south making it a very quick commute to Galveston. Cons:Only one I can think of is the pool is outside. It would be really cool if in the cooler windy winter months to still be able to take a plunge. We would and have recommend this hotel to any wanting to stay the the Houston/Galveston area. We will definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I have been coming to this comfort Inn for several years now.  It is good, comfortable, roomy, and a straight shot down the road to Galveston for catching cruises or any type of activity you may have locally. Pros :Comfortable and roomy rooms. A good breakfast offered in the morningBreakfast area open,  plenty of seatingHot tub and poolLaundry room and exercise roomFriendly staff And as mentioned,  placed right on 146 highway which merges easily on to i45 south making it a very quick commute to Galveston. Cons:Only one I can think of is the pool is outside. It would be really cool if in the cooler windy winter months to still be able to take a plunge. We would and have recommend this hotel to any wanting to stay the the Houston/Galveston area. We will definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r432950344-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>432950344</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Great 2 night stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights before leaving for a cruise out of Galveston. The hotel was nice, clean, and in the perfect location! Just about 5 minutes to Galveston and located near several great eating places. These beds were also, hands down, the most comfortable beds any of our party (of 15) had ever slept in! We didn't want to leave! We will definitely stay here again next time we cruise! Bonus: they also have a laundry room that I was able to do laundry in while we ate the continental breakfast (which was also good). They also have computers/free printing, which came in handy for cruise documents!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights before leaving for a cruise out of Galveston. The hotel was nice, clean, and in the perfect location! Just about 5 minutes to Galveston and located near several great eating places. These beds were also, hands down, the most comfortable beds any of our party (of 15) had ever slept in! We didn't want to leave! We will definitely stay here again next time we cruise! Bonus: they also have a laundry room that I was able to do laundry in while we ate the continental breakfast (which was also good). They also have computers/free printing, which came in handy for cruise documents!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r429323927-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
@@ -565,9 +856,6 @@
 They offered a good breakfast the following morning including homemade waffles and biscuits &amp; gravy. My biggest disappointment with the breakfast was the fact that they had signs asking to please not take any food from the dining area. Our morning routine when we are in a hotel is that hubby goes and gets breakfast and brings something back to me in the room while I'm getting ready. Since we try to follow the rules, DH did not bring me anything. Since I thought that he would be able to bring something back to the room that morning,...After booking our cruise out of Galveston, I began looking for a place to spend the night prior to our departure. Everything in Galveston seemed expensive and many required two or more nights which we didn't need. On one of the cruise forums that I'm on, someone mentioned staying in Texas City since it's only about 15 minutes from the port. I did some research and found the Comfort Inn and Suites Galveston Bay Refineries in Texas City seemed to have a good rating and the price was good too.We arrived that evening and check-in took just a few minutes. We went to our room and it was very spacious. However, our friends who were traveling with us were in room 209 and it had an unusual odor. They reported it to the front desk and were promptly assigned another room.They offered a good breakfast the following morning including homemade waffles and biscuits &amp; gravy. My biggest disappointment with the breakfast was the fact that they had signs asking to please not take any food from the dining area. Our morning routine when we are in a hotel is that hubby goes and gets breakfast and brings something back to me in the room while I'm getting ready. Since we try to follow the rules, DH did not bring me anything. Since I thought that he would be able to bring something back to the room that morning, I didn't allow myself extra time to go down and get breakfast when I set my alarm the night before. This was disappointing for me.All in all, it was a good stay and I will book with them again the next time we cruise out of Galveston...I'll just know to set my alarm a little earlier this time. :)MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded October 20, 2016</t>
   </si>
   <si>
@@ -594,9 +882,6 @@
     <t>Comfort Inn Texas City.  It gives a great visual appearance.  It’s clean and the water is nice and hot.  My room (311) was spacious and well laid out.  Lots of counter space in the bathroom.  Wifi is OK (3/5), with a noticeable lag at times but definitely usable.  (Note: the wifi completely crapped out the next morning, just when I needed it.)  The laundry room has two washing machines and two dryers.Negatives: 1) My room had a musty smell.   2) My room was by the elevator, which has an announcement chime when the doors open.  The chime was very loud and came straight through my door into my room; rather annoying in the morning.  3) The breakfast room was running out of food, including milk and coffee, before closing time, with no replenishment in sight.The motel’s location is a bit odd.  It’s in an industrial area where you don’t expect to find a good motel.  The location actually makes it very convenient, but there is nothing that is walking distance.Value 5/5.  Overall 3/5.  I’m not sure if I’d stay here again, mostly due to the musty smell in my room.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -627,6 +912,51 @@
     <t>Very nice, newer Comfort Inn, we spent 1 night there before our cruise. Very good breakfast. Price is very good compared to staying in Galveston, and this is only about 15-20 minutes from the pier. Had a very safe parking area, and close to several grocery stores, for that last minute wine purchase.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r415552101-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>415552101</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay :)</t>
+  </si>
+  <si>
+    <t>If you want to be within 20 minute driving distance of Galveston and not pay the expensive hotel prices in Galveston. This is your place! Our room was comfy &amp; cozy. The place itself is very quiet. It's convenient and easy to get on i45. I had no issues. The front desk people are very nice. And helpful. We've decided each time we go to Galveston we will stay here :) MoreShow less</t>
+  </si>
+  <si>
+    <t>Jody P, General Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>If you want to be within 20 minute driving distance of Galveston and not pay the expensive hotel prices in Galveston. This is your place! Our room was comfy &amp; cozy. The place itself is very quiet. It's convenient and easy to get on i45. I had no issues. The front desk people are very nice. And helpful. We've decided each time we go to Galveston we will stay here :) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r414762002-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>414762002</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Front Desk Staff Very Friendly</t>
+  </si>
+  <si>
+    <t>The front desk clerk when we checked was very friendly and helpful. It really set the tone for the rest of our stay.Beds were very comfortable we slept well fro being away from home.The breakfast was average, not the worst we have had.Over all a very nice hotel with a great staffMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The front desk clerk when we checked was very friendly and helpful. It really set the tone for the rest of our stay.Beds were very comfortable we slept well fro being away from home.The breakfast was average, not the worst we have had.Over all a very nice hotel with a great staffMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r414301856-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -642,12 +972,6 @@
     <t>We were in town visiting relatives and needed a place to stay. The location is not the best since it is fairly near the refineries, but it was much closer to town than the motels on the interstate (I45). It is very reasonably priced.We had a comfortable bed, a quiet room, and the usual average breakfast.The staff was friendly and courteous.MoreShow less</t>
   </si>
   <si>
-    <t>Jody P, General Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded September 12, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 12, 2016</t>
-  </si>
-  <si>
     <t>We were in town visiting relatives and needed a place to stay. The location is not the best since it is fairly near the refineries, but it was much closer to town than the motels on the interstate (I45). It is very reasonably priced.We had a comfortable bed, a quiet room, and the usual average breakfast.The staff was friendly and courteous.More</t>
   </si>
   <si>
@@ -696,6 +1020,57 @@
     <t>The king size bed and bedding was nice. Had plenty of bath towels. The room was clean. The breakfast was good. Lots of food items to choose from. I was there for a 3-day trip with my students. It was nice to come back to a neat and tidy room. The ADA room was spacious and the tub was low to the floor. It just needed a bathroom floor mat.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r394070103-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>394070103</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>OK, but check your room before hauling your luggage in.</t>
+  </si>
+  <si>
+    <t>Staff was very courteous and helpful.  No complaints there by any means.  Only problem was with my room the first night.  There was a very sour odor in the room.  I'm not sure what the origin was but when I notified the front desk they promptly moved me to a room that was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>gemsj, General Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Staff was very courteous and helpful.  No complaints there by any means.  Only problem was with my room the first night.  There was a very sour odor in the room.  I'm not sure what the origin was but when I notified the front desk they promptly moved me to a room that was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r392281863-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>392281863</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Perfect for our 1 night stay</t>
+  </si>
+  <si>
+    <t>We stayed here the night before heading to the cruise ship and enjoyed our stay. The hotel was clean and the staff were very friendly. The check in and check out process was seamless and the breakfast was enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here the night before heading to the cruise ship and enjoyed our stay. The hotel was clean and the staff were very friendly. The check in and check out process was seamless and the breakfast was enjoyable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r385968192-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -709,9 +1084,6 @@
   </si>
   <si>
     <t>Check in was quick, asked for room close to pool and got that. Room was clean, beds were ok. Most of the staff were nice. It is obvious that the owners are very frugal, front desk help has most of the breakfast duty, therefore if people are checking out or the phone is ringing, the breakfast gets last priority. No fresh baked cookies, not that we saw or smelled. Only about 20 mins or less to Galveston. Pool opens early, that is nice if you are traveling with children. For the price it was just fine.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2016</t>
   </si>
   <si>
     <t>Jody P, General Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 26, 2016</t>
@@ -764,6 +1136,51 @@
 The next day, one of my cousins called the front desk to report that housekeeping had not cleaned their room. She was first told that this was because she had posted the do not disturb sign on the door. Once she assured them that this was not the case since she had placed her sign in her bathroom upon arrival, she was then told that it was not cleaned because she had just checked in the prior evening and was scheduled...After the loss of both my grandmother and grandfather, my mom &amp; her sisters decided to begin an annual reunion vacation in the Galveston area. Unfortunately, this year we chose this property as a cheaper alternative to some of the pricier options that we have used in the past. Well the old adage has proved true once again - "you get what you pay for".  Check-in went relatively smoothly (although there were some "policies" enforced that we have never heard of on previous visits to Choice hotels) but that was the end of our good fortune. The rooms were somewhat decent although my parents had a very disgusting sticky brown substance on their bathroom door and white "splashes" on the bed runner/scarf. My room had stains on the carpet, lounge chair, and foot stool. I also had a tattered lampshade and an electrical socket that was hanging from the wall. I was afraid to even attempt to use that.The next day, one of my cousins called the front desk to report that housekeeping had not cleaned their room. She was first told that this was because she had posted the do not disturb sign on the door. Once she assured them that this was not the case since she had placed her sign in her bathroom upon arrival, she was then told that it was not cleaned because she had just checked in the prior evening and was scheduled to be there for 4 nights and they didn't think she would need her room cleaned that day! Later that night,  we all returned to the hotel to get some rest after a LONG day of activities. After being in the room for approximately 30 minutes, one of my cousins received a call from the front desk telling her that she needed to keep it down because they had received several complaints of noise coming from her room throughout the night of kids stomping and screaming. This was NOT the case because her children were in bed at the time!  When we went down to inquire about the complaint and explain our position, the front desk attendant spoke in a very condescending and offensive manner. There were SEVERAL other issues that I could elaborate on including the lackluster breakfast, the filthy washing machines in the guest laundry facilities and intermittent WI-FI connectivity; however, I will simply end by stating that this hotel nearly ruined our family vacation and we will NEVER return!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r377409899-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>377409899</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Just passing through Texas City we chose the Comfort Inn.  Not a great neighborhood and was concerned about the security of our vehicle but no problems.  The room was very clean and comfortable.  King size bed offered a great nights sleep.  We enjoy the spacious bathroom and counter space. Not anything close to walk to for food or a nightcap.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Just passing through Texas City we chose the Comfort Inn.  Not a great neighborhood and was concerned about the security of our vehicle but no problems.  The room was very clean and comfortable.  King size bed offered a great nights sleep.  We enjoy the spacious bathroom and counter space. Not anything close to walk to for food or a nightcap.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r361914903-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>361914903</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights before our cruise left out on Sunday it was a nice clean hotel, they had a nice pool and hot tub we spent some time in. My only complaint would be that there were no towels for the pool stocked and the night time check in person was sitting behind the desk playing on her phone. She could have gotten towels out for the guest as the hallway was very wet due to no towels being available. I would most certainly stay here again. We will the next cruise we go on.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights before our cruise left out on Sunday it was a nice clean hotel, they had a nice pool and hot tub we spent some time in. My only complaint would be that there were no towels for the pool stocked and the night time check in person was sitting behind the desk playing on her phone. She could have gotten towels out for the guest as the hallway was very wet due to no towels being available. I would most certainly stay here again. We will the next cruise we go on.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r352231740-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -782,12 +1199,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded June 7, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 7, 2016</t>
-  </si>
-  <si>
     <t>A little below standards for most of the Comfort Suites I have stayed at. The room was clean. Didn't have any view, no surprise it was Texas City. Breakfast had variety. The television reception in the room stunk. No HD poor picture and limited channels.No business computer for guests.More</t>
   </si>
   <si>
@@ -842,6 +1253,51 @@
     <t>Met some family at this hotel as we prepared to go to Galveston for a cruise. Overall, the beds are comfortable and the room is clean, but the staff was unresponsive to our needs and the breakfast was inadequate. I had a little boy who was having to sleep on the floor and they would not provide a cot or more than one blanket for him. I was repeatedly told by the manager that he was "looking for a cot" but he never actually told me if he had found one or communicated. Probably wouldn't stay here again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r340836217-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>340836217</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Wonderful staff! Great hotel!</t>
+  </si>
+  <si>
+    <t>After leaving a HORRIBLE hotel in Galveston and spending 1/2 hour frantically trying to find a hotel (at 11pm) called this one.  The man I spoke with was simply wonderful and calmed me right down assuring me a room!  He didn't require me to quickly book over the phone said he'll have the room when we get there (we were 20 minutes away).  Got there a got quickly checked in and got to bed promptly! Very smooth! The hotel was very clean and cute and comfy bed.  Breakfast was great.  Very pleasant experience. Highly recommended :)MoreShow less</t>
+  </si>
+  <si>
+    <t>After leaving a HORRIBLE hotel in Galveston and spending 1/2 hour frantically trying to find a hotel (at 11pm) called this one.  The man I spoke with was simply wonderful and calmed me right down assuring me a room!  He didn't require me to quickly book over the phone said he'll have the room when we get there (we were 20 minutes away).  Got there a got quickly checked in and got to bed promptly! Very smooth! The hotel was very clean and cute and comfy bed.  Breakfast was great.  Very pleasant experience. Highly recommended :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r328630873-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>328630873</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Good average Comfort Inn</t>
+  </si>
+  <si>
+    <t>My husband and I got a room with a king bed on the 3rd floor. The room appeared to be clean and was in good working order. We had a nice size TV, very small coffee pot, microwave, refrigerator, desk with chair and another chair with ottoman. My husband liked the mattress but I thought it was too saggy.The free breakfast included eggs, sausage, buscuits, gravy (waterly), cereal, bananas, pastries, yogart, coffee, milk, orange juice and waffles. With our AARP discount our room was $71 with tax. I usually stay in Galveston but the rates were extra high on the weekend before Thanksgiving.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded January 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I got a room with a king bed on the 3rd floor. The room appeared to be clean and was in good working order. We had a nice size TV, very small coffee pot, microwave, refrigerator, desk with chair and another chair with ottoman. My husband liked the mattress but I thought it was too saggy.The free breakfast included eggs, sausage, buscuits, gravy (waterly), cereal, bananas, pastries, yogart, coffee, milk, orange juice and waffles. With our AARP discount our room was $71 with tax. I usually stay in Galveston but the rates were extra high on the weekend before Thanksgiving.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r327144106-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -857,15 +1313,6 @@
     <t>I was here for one night on business, the hotel was perfectly in line with what one would expect from a 2 star property. Clean and basic with no frills, I had everything I needed. The in room amenities were limited to a hair dryer and coffee maker along with the average travel size shampoo / conditioner and cheap off brand coffee.There was a small flat screen TV with basic cable channels, the bedding and linens were adequate and the hotel is located in a fairly quiet area of town, they do have free WIFI in the rooms although I found it to be rather slow.They offer a free but basic continental breakfast which I passed on in favor of more appealing options in town which are plentiful as well as close by.Nothing really remarkable to mention, if you are just looking for a clean, safe place to hang your hat for the evening this would be a good bet, If vacationing with beaches, shopping, and nightlife in mind there are far more exciting options a little further south on Galveston island. - Enjoy!MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
-    <t>comfortinnandsuitesg, Webmaster at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded January 1, 2016</t>
-  </si>
-  <si>
-    <t>Responded January 1, 2016</t>
-  </si>
-  <si>
     <t>I was here for one night on business, the hotel was perfectly in line with what one would expect from a 2 star property. Clean and basic with no frills, I had everything I needed. The in room amenities were limited to a hair dryer and coffee maker along with the average travel size shampoo / conditioner and cheap off brand coffee.There was a small flat screen TV with basic cable channels, the bedding and linens were adequate and the hotel is located in a fairly quiet area of town, they do have free WIFI in the rooms although I found it to be rather slow.They offer a free but basic continental breakfast which I passed on in favor of more appealing options in town which are plentiful as well as close by.Nothing really remarkable to mention, if you are just looking for a clean, safe place to hang your hat for the evening this would be a good bet, If vacationing with beaches, shopping, and nightlife in mind there are far more exciting options a little further south on Galveston island. - Enjoy!More</t>
   </si>
   <si>
@@ -911,6 +1358,51 @@
     <t>The room itself was quite comfortable- good bed, enough pillows, clean bathroom.  Breakfast was good, but not great.  Things that were supposed to be hot (sausage gravy) were warm and things that were supposed to be cold (milk) were warm too.  To be fair, we did show up in the last 15 minutes before breakfast closed.  Overall, a decent place at a decent price near Galveston and Space Center Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r310665773-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>310665773</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Smelly, unfriendly</t>
+  </si>
+  <si>
+    <t>hotel had very foul smell through-out, check-in staff was the worst I've ever experienced, won't be back! Not much around but definitely cheaper than staying in Galveston.  We booked early and had comments made to us about the lower price we were paying compared to the rip off price they were charging for that night.  Best advice is keep on driving down the road!MoreShow less</t>
+  </si>
+  <si>
+    <t>gemsj, Manager at Comfort Inn &amp; Suites Galveston Bay Refineries, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>hotel had very foul smell through-out, check-in staff was the worst I've ever experienced, won't be back! Not much around but definitely cheaper than staying in Galveston.  We booked early and had comments made to us about the lower price we were paying compared to the rip off price they were charging for that night.  Best advice is keep on driving down the road!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r298814808-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>298814808</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Good place to stay if your Crusing from Galveston</t>
+  </si>
+  <si>
+    <t>We stayed here night before going on a cruise.  The bed was very comfortable, I would give it 5 stars.  Breakfast was just ok, and was free.  Our room did not have musty smell as some of the other reviews said. We would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We stayed here night before going on a cruise.  The bed was very comfortable, I would give it 5 stars.  Breakfast was just ok, and was free.  Our room did not have musty smell as some of the other reviews said. We would stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r296425707-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -968,6 +1460,42 @@
     <t>Booked online because of our cruise.  Overpriced and dirty is all that comes to mind.  The room smelled terrible.  STRONG moldy musty smell.  The other couple on the cruise with us walked into a dirty room.  There was a used wash rag still in the shower and the towels all had brown stains on them.  Breakfast was a nightmare.  Had to stand in line and fight for cold hard biscuits.  Would NEVER stay here again.  If you are just needing to spend the night before your cruise, stay in Kemah.  Only about 15 miles further and much more to do....and I'm sure the room wouldn't stink!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r285783242-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>285783242</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>We had a good time at the pool amd spa. The rooms are clean and everything works great. The breakfast was great. The only thing I didn't like is the smell of the room. Gym was organized. The price was not bad and we enjoy being here.Thanks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r277823440-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>277823440</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, close to Galveston</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in Texas City the night before we left for a cruise out of Galveston. The location is decent, it's only about a 10-15 minute drive into Galveston, which was worth it because of the savings versus staying on the island. The staff was friendly and the room was nice. They have a good breakfast included with the rate, but there is very limited seating and the layout of the food is not that great. They had a waffle iron in the corner which formed a line behind it, making it difficult to get to other items. The only other strange thing was that they wouldn't give us any additional towels unless we brought the used ones up and exchanged them. I guess they have had a lot of towel theft (why I don't know, the towels were small and not super soft). Overall we were pleased with the hotel and everyone slept well. I would definitely recommend for a pre-cruise stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in Texas City the night before we left for a cruise out of Galveston. The location is decent, it's only about a 10-15 minute drive into Galveston, which was worth it because of the savings versus staying on the island. The staff was friendly and the room was nice. They have a good breakfast included with the rate, but there is very limited seating and the layout of the food is not that great. They had a waffle iron in the corner which formed a line behind it, making it difficult to get to other items. The only other strange thing was that they wouldn't give us any additional towels unless we brought the used ones up and exchanged them. I guess they have had a lot of towel theft (why I don't know, the towels were small and not super soft). Overall we were pleased with the hotel and everyone slept well. I would definitely recommend for a pre-cruise stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r275838706-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1007,9 +1535,6 @@
     <t>We spent a quiet Friday night at this hotel.Room was large,  nice beds, comfy carpet.  Only complaint was that it smelled musty. The management should run the air more often to keep the humidity down, since they're so near the coast.</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r273060790-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1025,6 +1550,42 @@
     <t>We stayed here for two nights for a pre cruise. The hotel was clean and adequate for our stay. The staff was very friendly and helpful. The price was very reasonable. We left our car there and took a taxi into the Port of Galveston which end worked out great.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r271010617-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>271010617</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>A place to stay before and after our cruise</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise as well as the night we got back.  The rooms were clean and the staff was friendly.  A hot breakfast in the morning was a bonus.  It was only about a 15 minute drive to the Port of Galveston so it was easy to get there.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r268440036-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>268440036</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, staff is less desirable...</t>
+  </si>
+  <si>
+    <t>The hotel itself is quite ok. Everything was clean, and the location is close to Galveston and shopping. The problem was with the staff. I did not meet one friendly staff member. Everyone seemed to hate their job, and it showed. The worst part of our stay was during the middle of the night. My wife were staying here alone the night before our cruise. She woke me up at 4am holding a small child at the foot of our bed while panicking. She was awakened by the child crying in the hallway. He was outside our door sobbing in the fetal position for about 45 minutes. His sorry mother was slumming with someone on another floor :(   Management was contacted and came to our floor. Instead of contacting police and CPS, they began going door-to-door and waking up the guests to find out if this was their child. Extremely unprofessional, and did more harm than good for the hotel and the child alike. Had s decent breakfast the next morning.   To recap, the room was fine, but nothing else!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself is quite ok. Everything was clean, and the location is close to Galveston and shopping. The problem was with the staff. I did not meet one friendly staff member. Everyone seemed to hate their job, and it showed. The worst part of our stay was during the middle of the night. My wife were staying here alone the night before our cruise. She woke me up at 4am holding a small child at the foot of our bed while panicking. She was awakened by the child crying in the hallway. He was outside our door sobbing in the fetal position for about 45 minutes. His sorry mother was slumming with someone on another floor :(   Management was contacted and came to our floor. Instead of contacting police and CPS, they began going door-to-door and waking up the guests to find out if this was their child. Extremely unprofessional, and did more harm than good for the hotel and the child alike. Had s decent breakfast the next morning.   To recap, the room was fine, but nothing else!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r255850778-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1640,39 @@
     <t>This Hotel locks guests in at night not allowing guests to open the designated emergency exits doors after 10 PM. This exit is at the end of the hall near the accessible rooms. When I inquired about why they were locking the doors at night the Front Desk Man said that people have walked off with room TVs and Computers at night. I advised him that it was a violation of Fire Safety Code to secure fire exits. If there is ever an emergency where fire men have to come in or the police there will be loss of life. The windows are one piece no escaping through the windows either. The only way out would be through front doors... Please stay some place else. I will be reporting this violation to the Texas State Fire Marshal's office.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r243562259-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>243562259</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Good location!</t>
+  </si>
+  <si>
+    <t>Easy to get to. Felt quiet safe. Nice breakfast, friendly staff. Selection of pillows. Clean, quiet. We overnighted here before a cruise, as did many others (we found out in breakfast room). Good price and much cheaper than on galveston island. Might try Priceline for better rate. Worked out well for us.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r240619103-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>240619103</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Ok place to stay the night before your Galveston cruise</t>
+  </si>
+  <si>
+    <t>We had a nonsmoking room on the 3rd floor.  It was clean and fairly quiet.  Less expensive than the hotels in Galveston for sure and just a short drive to the pier.  Nothing fancy, terrible view, but overall good and a good location.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r237205676-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1730,45 @@
     <t>Arrived at 5pm and checked in quickly.  Our room looked as though it had been recently updated (new carpet, fresh paint, new shower surround) and seemed to be clean.  The de-odorizer smell was fresh and strong and by the next morning you could smell the stale smoke smell it was intended to hide.  Nothing to get too excited about but some people might not appreciate it.  The breakfast was nothing to write home about but not that bad either.  I'm guessing the owner/manager isn't a coffee drinker because it was very weak and tasteless.  I'd stay again just because it was much cheaper than anything else in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r222380652-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>222380652</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Believe me...it was a GREAT stay! Recommend highly!</t>
+  </si>
+  <si>
+    <t>There is a little stench when you first walk in but that's it! The lobby is nice, the front desk clerks were very nice, our room was big and the beds are VERY comfortable! They even have 2 pillows to choose from for each person which is unusual and extremely nice! I don't know what these other people are talking about with these bad reviews. Breakfast was great, too, and there was plenty of room for everyone there to sit and eat. I'll stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>There is a little stench when you first walk in but that's it! The lobby is nice, the front desk clerks were very nice, our room was big and the beds are VERY comfortable! They even have 2 pillows to choose from for each person which is unusual and extremely nice! I don't know what these other people are talking about with these bad reviews. Breakfast was great, too, and there was plenty of room for everyone there to sit and eat. I'll stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r220766730-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>220766730</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Will not stay here again</t>
+  </si>
+  <si>
+    <t>On our way to Carnival cruise, checked in about 11:30pm.  Clerk was nice,  went to room on second floor.  Walked into room and over come by stale cigarette smell, extremely bad. Tried spring Free breeze with no luck.  Went to get ice &amp; water from vending machine, only one working on 3rd floor.  Came back to room the smell seemed worse, eye burning, throat hurting so went to front desk for new room, for paying over $120 a night should be better quality.   Desk employee said he could not move us without manager approval,  we said then call them.  For one we refuse to pay a cleaning fee they stated would be charged when we were not the ones that smoked in room.  Finally after 1:00am. Moved to different room on 3rd floor.   Much better no smell, but someone had attached a plastic cup with plastic cover over smoke detector.  Just glad to get through the night.  Will never stay here again.  Super 8 for half the price does circles around this plsce.Breakfast was a joke.  They locked door before 9 am, and we're out of most items by 8:30.  Not much seating and big signs not allowed to take food back to room.  This was nothing like the other Comfort suites we have been too.  Very disappointed. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>On our way to Carnival cruise, checked in about 11:30pm.  Clerk was nice,  went to room on second floor.  Walked into room and over come by stale cigarette smell, extremely bad. Tried spring Free breeze with no luck.  Went to get ice &amp; water from vending machine, only one working on 3rd floor.  Came back to room the smell seemed worse, eye burning, throat hurting so went to front desk for new room, for paying over $120 a night should be better quality.   Desk employee said he could not move us without manager approval,  we said then call them.  For one we refuse to pay a cleaning fee they stated would be charged when we were not the ones that smoked in room.  Finally after 1:00am. Moved to different room on 3rd floor.   Much better no smell, but someone had attached a plastic cup with plastic cover over smoke detector.  Just glad to get through the night.  Will never stay here again.  Super 8 for half the price does circles around this plsce.Breakfast was a joke.  They locked door before 9 am, and we're out of most items by 8:30.  Not much seating and big signs not allowed to take food back to room.  This was nothing like the other Comfort suites we have been too.  Very disappointed. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r218912767-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1190,6 +1823,39 @@
     <t>DO NOT sleep here gross wet floors hair everywhere. The room was never cooling off and five days after we stayed here they charged us for 3 pillows they said we stole $85. Tried to call them and was stone walled. I guess all we can do is accept the false charge and warn others. We are a family of 5, I am an Eagle Scout, Iraq and Afghanistan Vet, Staff Sergeant Non-commissioned officer. MY FAMILY DOESNT STEAL!!!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r216761077-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>216761077</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Smelly and hot!</t>
+  </si>
+  <si>
+    <t>We went to Texas City for a swim meet. I booked this hotel online and it seemed like the best option, because little was available. The room was hot and did not cool off until 3 am. The sofa bed was so uncomfortable my 12 year old son chose to sleep on the floor. The hotel also smelled. Not an enjoyable experience for $145. Room was clean. Breakfast was ok.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r216641217-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>216641217</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>this location has seen its better days</t>
+  </si>
+  <si>
+    <t>From the outside looking in, this looks like a wonderful facility, but it's very deceiving.  At check-in, I requested a top floor room to avoid hearing footsteps above our room, seeing that we had driven 7 hours before stopping.  The desk clerk, Anastasia, said that room assignments couldn't be changed, although I've had room assignments changed frequently.  Just as I suspicioned, we heard kids running above us in their room at 5am!  The room itself showed quite a bit of wear.  The bathroom door had 3 holes in it, and they covered the holes with black tape rather than replacing the door.  At check-out, I told them of our situation and they credited my account by a whole $8.50!!  Rest was nearly impossible and they did nothing about it.  I gave Comfort Inn an opportunity to correct a poor situation and they chose to only give a small credit.  I'd avoid this location if other motels are available.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the outside looking in, this looks like a wonderful facility, but it's very deceiving.  At check-in, I requested a top floor room to avoid hearing footsteps above our room, seeing that we had driven 7 hours before stopping.  The desk clerk, Anastasia, said that room assignments couldn't be changed, although I've had room assignments changed frequently.  Just as I suspicioned, we heard kids running above us in their room at 5am!  The room itself showed quite a bit of wear.  The bathroom door had 3 holes in it, and they covered the holes with black tape rather than replacing the door.  At check-out, I told them of our situation and they credited my account by a whole $8.50!!  Rest was nearly impossible and they did nothing about it.  I gave Comfort Inn an opportunity to correct a poor situation and they chose to only give a small credit.  I'd avoid this location if other motels are available.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r215623071-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1244,6 +1910,42 @@
     <t>Charged $10 for a rollaway bed and then made me roll it up to the room myself.  Hallways hadn't been vacuumed in a while.  There was dust and gunk buildup near the baseboards.  Cable connection was terrible.  Fuzzy/static connection.  When we tried to check out the next day the clerk wanted my American Express card.  Well, I paid with a MC.  Then she said, "oh, I see you paid with cash."  No, I paid with a MC. Then she said I owed $21 room fee.  No, I paid all fees on line.  She couldn't tell me why I owed it or what it was for.  She said I couldn't check out before I paid it.  She tried to call her manager and who said she could help me if I could wait 20 for her to get there.  I walked out and said they better not charge my card.  I guess I was never checked out of the room, b/c I never paid the $21.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r204633401-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>204633401</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Pass on this one</t>
+  </si>
+  <si>
+    <t>We were nicely greeted by the young lady at the desk and were given keys to a non-smoking room, which smelled like a pack of cigarettes.  The receptionist gave us another room, was very apologetic, but that room also  smelled of smoke, otherwise the room was semi clean. The breakfast was adequate with no surprises.  The pool area, including the pool was dirty and had weeds growing in the seams of the sidewalk.  The location to Galveston was great and we spent 2 days at this hotel before going on our cruise.  Although the service was great, I know that we will never stay at this establishment again, because of the overall decline of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We were nicely greeted by the young lady at the desk and were given keys to a non-smoking room, which smelled like a pack of cigarettes.  The receptionist gave us another room, was very apologetic, but that room also  smelled of smoke, otherwise the room was semi clean. The breakfast was adequate with no surprises.  The pool area, including the pool was dirty and had weeds growing in the seams of the sidewalk.  The location to Galveston was great and we spent 2 days at this hotel before going on our cruise.  Although the service was great, I know that we will never stay at this establishment again, because of the overall decline of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r203778982-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>203778982</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Under the bridge you would get better customers service.</t>
+  </si>
+  <si>
+    <t>Under the bridge you would get better customers service. The desk helper is no help dumb and doesn't even know the hotel. She called the owner and had me speak to her. She was very rude. Once again very rude and told me I could take what I had or fly a kite. Was no help and didn't even say sorry for something they messed up. And the room had some mold in the shower and smelled like a wet dog. STAY AWAY.....</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r191852459-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1313,6 +2015,42 @@
     <t>I haven't reviewed this location in a while so I was surprised to read the two negative ones. I suspect one of those reviews was written by a teen just by the wording. Okay, here goes an update. I absolutely cannot understand a negative review on this hotel. I think we've stayed here about 6 or 7 times now, not always the same room, of course, and never even remotely got something bad. As I said before, I am very particular. The rooms are spotless, always fully stocked. I've never even seen a broken hinge on anything in a room. The outside is neat as a pin. Mostly cruisers staying here I suspect. I met two ladies this past weekend who were heading out on a Disney cruise. As far as the front desk staff goes, maybe I'm spoiled as a regular, but they are all super nice and chatty with me. I find the younger man, Kyle, to have some of the best manners I have ever seen. I actually met the owner this weekend too. Haven't seen them before but they were up working on Sunday morn. Here's the summary, perfect room, friendly staff, no riff raff, clean outside, quiet, close to everything, good rates. I've stayed several times, if this were a dud, I would know it!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r180745026-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>180745026</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Do not come here!</t>
+  </si>
+  <si>
+    <t>OMG! worste location ever!!!! no extra pillows, mosquito's inside the hotel, our room smell like mold, bed is awful, pillows are flat, location near the industrial yuck! This place is the worse hotel I ever been to. Never AGAIN!!! I am so disappointed :( I'm here right now laying down and my family hate's it.MoreShow less</t>
+  </si>
+  <si>
+    <t>OMG! worste location ever!!!! no extra pillows, mosquito's inside the hotel, our room smell like mold, bed is awful, pillows are flat, location near the industrial yuck! This place is the worse hotel I ever been to. Never AGAIN!!! I am so disappointed :( I'm here right now laying down and my family hate's it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r175283361-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>175283361</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>breakfast was awesome!</t>
+  </si>
+  <si>
+    <t>Family and I were driving through for Labor day weekend, and stopped here, really enjoyed my stay.  we had gotten a coupon from the coupon book and the hotel said they would accept it even though it clearly states not acceptable on holiday weekends, but the hotel wanted us to stay so we did, thanks comfort inn</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r172556186-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1343,9 +2081,6 @@
     <t>All we needed was 2 extra blankets...we stayed 3 nights paid in advance....I was told by the night clerk that she couldn't give me the extra blankets because she was saving them for a reservation that would be coming in that night.  Specifically for a suite...which had a pull out bed with no linen or blankets...and she only had three...so I ask for one and she still said no...????Really are there no extra blankets for a paying customer?  The woman was curt!   Earlier that day it seemed the head maid was behind the desk...and I asked her if we could get fresh towels and she was rather curt as well...from other reviews it seems the maids are running the place....very disappointed and will not come here again!MoreShow less</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>All we needed was 2 extra blankets...we stayed 3 nights paid in advance....I was told by the night clerk that she couldn't give me the extra blankets because she was saving them for a reservation that would be coming in that night.  Specifically for a suite...which had a pull out bed with no linen or blankets...and she only had three...so I ask for one and she still said no...????Really are there no extra blankets for a paying customer?  The woman was curt!   Earlier that day it seemed the head maid was behind the desk...and I asked her if we could get fresh towels and she was rather curt as well...from other reviews it seems the maids are running the place....very disappointed and will not come here again!More</t>
   </si>
   <si>
@@ -1364,6 +2099,42 @@
     <t>Booked room on Orbitz. Upon check-in was asked for credit card. I was told there would b a $100 hold for incidents placed on the card. Orbitz did not inform of this charge. This was not anything I have ever experienced. Otherwise, nice property &amp; room.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r158935311-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>158935311</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>met our expectations</t>
+  </si>
+  <si>
+    <t>The room was great as was the free breakfast.  We stayed here the night before our cruise left the next day out of Galveston.  The only downer I would say is the extra $25.00 they charged us up front for having 4 adults in our room vs. 2 adults.  When we booked this several weeks earlier on hotels.com we knew about the extra $25.00 fee so it wasn't a surprise or anything.  I just felt like they shouldn't do this type of charge.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r154958763-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>154958763</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Mixed Bag</t>
+  </si>
+  <si>
+    <t>The bed was comfortable, the room quite large and the desk staff so helpful.  However, the breakfast area was not a pleasant experience.  The line for the food was always long, they constantly ran out of eggs and sausage and there were several signs saying "Do Not Take Food Out of This Area" which would be fine but there was never any place to sit.  Loved Texas City!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r154705046-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1379,9 +2150,6 @@
     <t>I'm shocked at some of the other reviews! But, everyone's perceptions are different. I'm very particular, we stayed at this location in May of 2012. We are back again. I have to add that this is Spring Break weekend just a few miles from Galveston. Thus, if a problem were going to occur, this would be the time. There's just a few things I must say in the beginning. No fan in the bathroom, I just cannot see that as a worthy point to even put down as one reviewer did. That is just me. Alex, at the front desk, he's a young guy, but was very friendly at chatty. Not sure why he was described as rude.  The rooms, they are immaculate. We have just came back in from being gone all day, the room is spotless. There are no broken drawers, lamps, hinges, deco is nice, snack area is clean, parking lot is safe. As far as no restaurants near by as one reviewer said, well, they didn't a block down and turn. There are too many to choose from. Bottom line, if going to Galveston, just stay here. Moderately priced Galveston locations (if there is such a thing) are usually rooms that have been ravaged by teens. This  is a "grown up" hotel here. You won't be disappointed.MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>I'm shocked at some of the other reviews! But, everyone's perceptions are different. I'm very particular, we stayed at this location in May of 2012. We are back again. I have to add that this is Spring Break weekend just a few miles from Galveston. Thus, if a problem were going to occur, this would be the time. There's just a few things I must say in the beginning. No fan in the bathroom, I just cannot see that as a worthy point to even put down as one reviewer did. That is just me. Alex, at the front desk, he's a young guy, but was very friendly at chatty. Not sure why he was described as rude.  The rooms, they are immaculate. We have just came back in from being gone all day, the room is spotless. There are no broken drawers, lamps, hinges, deco is nice, snack area is clean, parking lot is safe. As far as no restaurants near by as one reviewer said, well, they didn't a block down and turn. There are too many to choose from. Bottom line, if going to Galveston, just stay here. Moderately priced Galveston locations (if there is such a thing) are usually rooms that have been ravaged by teens. This  is a "grown up" hotel here. You won't be disappointed.More</t>
   </si>
   <si>
@@ -1421,6 +2189,53 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r133925491-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>133925491</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>WORST EVER, NEVER AGAIN!</t>
+  </si>
+  <si>
+    <t>Where to start...my bff and I had reserved a room for the last weekend in June at this establishment. An hour before our arrival, we were informed by Alex (the rudest desk clerk I've ever come across) that they had given our room away because we were not there before 3 pm!  Keep in mind, their policy is not to give a room away until 7 am the next morning. My friend finally got the manager on the phone, who was equally as rude. After several minutes of the manager calling her a liar, the manager said "I don't want to talk to you anymore! You can just call corporate." &amp; hung up on her. Long story short, we filled a complaint with the corporate office and have never once heard back from the hotel. WORST customer service I've ever experienced in my life!! Needless to say, neither my friend nor I will be staying at a Comfort Suites ever again. TRAVELER BEWARE of this shady operation!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Where to start...my bff and I had reserved a room for the last weekend in June at this establishment. An hour before our arrival, we were informed by Alex (the rudest desk clerk I've ever come across) that they had given our room away because we were not there before 3 pm!  Keep in mind, their policy is not to give a room away until 7 am the next morning. My friend finally got the manager on the phone, who was equally as rude. After several minutes of the manager calling her a liar, the manager said "I don't want to talk to you anymore! You can just call corporate." &amp; hung up on her. Long story short, we filled a complaint with the corporate office and have never once heard back from the hotel. WORST customer service I've ever experienced in my life!! Needless to say, neither my friend nor I will be staying at a Comfort Suites ever again. TRAVELER BEWARE of this shady operation!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r128355272-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>128355272</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>Nice room but maids do not give a good impression</t>
+  </si>
+  <si>
+    <t>No exhaust fan in bathroom.  No air conditioning in bathroom.  Quieter than average, partly due to location and partly due to the fact there were not very many quests.  Hotel is easy to find and is halfway between Galveston and Kemah.
+No restaurant nearby but there is a Chevron station next door.
+Breakfast included oatmeal, waffles, scrambled eggs, biscuits and gravy.  Biscuits were so hard and dry they were not edible.  Oatmeal was not restocked and there were no toppings for the oatmeal.  Milk was not restocked, coffee was not restocked, waffle batter was not restocked.  This seemed to be a situation where the desk clerk was doing double duty as breakfast bar attendant, always a bad idea.  Only one trash can in the breakfast bar area and it was in the most inconvenient place possible, they need to add a trash can near the exit door.  Maids used the breakfast bar for their own breakfast.  This not only used food and tables intended for guests but their cell phones were constantly ringing and they were constantly talking on the phone.  
+We are not messy people and normally do not ask for maid service for short stays.  On this occasion we ran short of kleenex and asked the maid for another box.  She refused.
+This hotel has a public computer with printer, but the interface is cumbersome and not user friendly.  For some strange reason they will not let you...No exhaust fan in bathroom.  No air conditioning in bathroom.  Quieter than average, partly due to location and partly due to the fact there were not very many quests.  Hotel is easy to find and is halfway between Galveston and Kemah.No restaurant nearby but there is a Chevron station next door.Breakfast included oatmeal, waffles, scrambled eggs, biscuits and gravy.  Biscuits were so hard and dry they were not edible.  Oatmeal was not restocked and there were no toppings for the oatmeal.  Milk was not restocked, coffee was not restocked, waffle batter was not restocked.  This seemed to be a situation where the desk clerk was doing double duty as breakfast bar attendant, always a bad idea.  Only one trash can in the breakfast bar area and it was in the most inconvenient place possible, they need to add a trash can near the exit door.  Maids used the breakfast bar for their own breakfast.  This not only used food and tables intended for guests but their cell phones were constantly ringing and they were constantly talking on the phone.  We are not messy people and normally do not ask for maid service for short stays.  On this occasion we ran short of kleenex and asked the maid for another box.  She refused.This hotel has a public computer with printer, but the interface is cumbersome and not user friendly.  For some strange reason they will not let you use the computer between midnight and 6:00 am.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>No exhaust fan in bathroom.  No air conditioning in bathroom.  Quieter than average, partly due to location and partly due to the fact there were not very many quests.  Hotel is easy to find and is halfway between Galveston and Kemah.
+No restaurant nearby but there is a Chevron station next door.
+Breakfast included oatmeal, waffles, scrambled eggs, biscuits and gravy.  Biscuits were so hard and dry they were not edible.  Oatmeal was not restocked and there were no toppings for the oatmeal.  Milk was not restocked, coffee was not restocked, waffle batter was not restocked.  This seemed to be a situation where the desk clerk was doing double duty as breakfast bar attendant, always a bad idea.  Only one trash can in the breakfast bar area and it was in the most inconvenient place possible, they need to add a trash can near the exit door.  Maids used the breakfast bar for their own breakfast.  This not only used food and tables intended for guests but their cell phones were constantly ringing and they were constantly talking on the phone.  
+We are not messy people and normally do not ask for maid service for short stays.  On this occasion we ran short of kleenex and asked the maid for another box.  She refused.
+This hotel has a public computer with printer, but the interface is cumbersome and not user friendly.  For some strange reason they will not let you...No exhaust fan in bathroom.  No air conditioning in bathroom.  Quieter than average, partly due to location and partly due to the fact there were not very many quests.  Hotel is easy to find and is halfway between Galveston and Kemah.No restaurant nearby but there is a Chevron station next door.Breakfast included oatmeal, waffles, scrambled eggs, biscuits and gravy.  Biscuits were so hard and dry they were not edible.  Oatmeal was not restocked and there were no toppings for the oatmeal.  Milk was not restocked, coffee was not restocked, waffle batter was not restocked.  This seemed to be a situation where the desk clerk was doing double duty as breakfast bar attendant, always a bad idea.  Only one trash can in the breakfast bar area and it was in the most inconvenient place possible, they need to add a trash can near the exit door.  Maids used the breakfast bar for their own breakfast.  This not only used food and tables intended for guests but their cell phones were constantly ringing and they were constantly talking on the phone.  We are not messy people and normally do not ask for maid service for short stays.  On this occasion we ran short of kleenex and asked the maid for another box.  She refused.This hotel has a public computer with printer, but the interface is cumbersome and not user friendly.  For some strange reason they will not let you use the computer between midnight and 6:00 am.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r117130375-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1473,6 +2288,42 @@
   </si>
   <si>
     <t>While the hotel is new and nice the service was so, so. Our room was not cleaned on one occasion. There were no towels for the pool area one evening nor did the pool seem to be cleaned and we were there three days and swam or used the jacuzzi all three days. Also the breakfast offerings were lacking.Breakfast area freshness of the food was questionable, the boiled eggs were spoiled, the fruit was soft. Bananas were brown and squishy and apples were soft. The cereal was stale, and so were the danishes. Very disappointed and yes, we did bring it to the attention of the attendant(s). Yep there were attendants, ALL the housekeeping staff was in the breakfast area eating waffles and having coffee they seem like no big deal and no changes were made for the next day, same spoiled eggs and stale cereal were in the containers on day three.While the location is good, if we return to the area we will most likely not stay here again, there is better to be had for the same money. I am not that hard to please but the so so accommodations, unfriendliness/unresponsiveness of staff and unappealing breakfast just makes me think try somewhere else next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r114660116-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>114660116</t>
+  </si>
+  <si>
+    <t>06/22/2011</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We stayed here the night before leaving on a cruise out of Galveston.The hotel is in a convenient location if heading to Galveston. The room was very nice and big.  Breakfast was good and consisted of waffles, bagels, sausage, biscuits, juice, etc.  The front desk staff were very polite and helpful. The hotel has a laundry room that guest can use which was nice.  If you need a place to stay that is clean, convenient, and decently priced this is the hotel for you.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r98391659-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>98391659</t>
+  </si>
+  <si>
+    <t>02/28/2011</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed for one night and found this place to be more than we could ask for.  It is clean and the staff were nice.  It is a good central location between Galveston and Kemah, and easy to find and get to.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d1026224-r57445674-Comfort_Inn_Suites_Galveston_Bay_Refineries-Texas_City_Texas.html</t>
@@ -2064,7 +2915,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2072,12 +2923,18 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2125,7 +2982,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -2143,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2165,28 +3022,28 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>62</v>
@@ -2204,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
         <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -2226,58 +3083,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>81</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
         <v>82</v>
-      </c>
-      <c r="X5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -2293,58 +3144,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -2360,35 +3205,31 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
       <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" t="s">
-        <v>100</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2399,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -2421,42 +3262,40 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>109</v>
-      </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2466,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -2488,56 +3327,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>113</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>109</v>
       </c>
       <c r="O9" t="s">
         <v>63</v>
       </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -2553,7 +3394,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2562,39 +3403,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -2610,56 +3461,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>129</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="O11" t="s">
         <v>130</v>
-      </c>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" t="s">
-        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -2675,56 +3522,48 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
         <v>138</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" t="s">
-        <v>141</v>
-      </c>
-      <c r="L12" t="s">
-        <v>142</v>
-      </c>
       <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O12" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -2740,52 +3579,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
         <v>144</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>145</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>146</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>147</v>
       </c>
-      <c r="L13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>134</v>
-      </c>
       <c r="O13" t="s">
-        <v>100</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -2801,43 +3646,43 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>150</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>151</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>152</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>153</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>154</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>155</v>
-      </c>
       <c r="O14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2846,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
         <v>156</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>157</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -2868,52 +3713,56 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>159</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>160</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>161</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>162</v>
       </c>
-      <c r="L15" t="s">
-        <v>163</v>
-      </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
         <v>165</v>
-      </c>
-      <c r="X15" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -2929,35 +3778,31 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
         <v>168</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>169</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>170</v>
       </c>
-      <c r="K16" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" t="s">
-        <v>172</v>
-      </c>
       <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2968,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
         <v>173</v>
-      </c>
-      <c r="X16" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -2990,58 +3835,58 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
         <v>176</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>177</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>178</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>179</v>
       </c>
-      <c r="L17" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>181</v>
-      </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
         <v>182</v>
-      </c>
-      <c r="X17" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18">
@@ -3057,56 +3902,56 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
         <v>185</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>186</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>187</v>
-      </c>
-      <c r="K18" t="s">
-        <v>188</v>
-      </c>
-      <c r="L18" t="s">
-        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
@@ -3122,46 +3967,44 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>193</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>194</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>195</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>196</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
         <v>197</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>181</v>
-      </c>
       <c r="O19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3210,37 +4053,35 @@
         <v>205</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y20" t="s">
         <v>206</v>
-      </c>
-      <c r="X20" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -3256,31 +4097,35 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" t="s">
         <v>209</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>210</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>211</v>
       </c>
-      <c r="K21" t="s">
-        <v>212</v>
-      </c>
-      <c r="L21" t="s">
-        <v>213</v>
-      </c>
       <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>130</v>
+      </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
@@ -3291,13 +4136,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -3313,34 +4158,34 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
         <v>215</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>216</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>217</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>218</v>
       </c>
-      <c r="L22" t="s">
-        <v>219</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>220</v>
-      </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3352,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
         <v>221</v>
-      </c>
-      <c r="X22" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="23">
@@ -3374,58 +4219,52 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
         <v>224</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>225</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>226</v>
       </c>
-      <c r="K23" t="s">
-        <v>227</v>
-      </c>
-      <c r="L23" t="s">
-        <v>228</v>
-      </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
         <v>63</v>
       </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
@@ -3441,31 +4280,31 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
         <v>233</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>234</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>235</v>
-      </c>
-      <c r="K24" t="s">
-        <v>236</v>
-      </c>
-      <c r="L24" t="s">
-        <v>237</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>238</v>
       </c>
       <c r="O24" t="s">
         <v>63</v>
@@ -3474,10 +4313,10 @@
         <v>5</v>
       </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3486,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
@@ -3508,31 +4347,31 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>240</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>241</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>242</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>243</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>244</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>229</v>
       </c>
       <c r="O25" t="s">
         <v>63</v>
@@ -3540,24 +4379,20 @@
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
@@ -3573,7 +4408,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3582,47 +4417,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
@@ -3638,7 +4469,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3647,25 +4478,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3720,13 +4551,13 @@
         <v>268</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3738,13 +4569,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
@@ -3760,7 +4591,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3769,37 +4600,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3848,20 +4679,24 @@
         <v>285</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
+        <v>269</v>
+      </c>
+      <c r="O30" t="s">
         <v>286</v>
-      </c>
-      <c r="O30" t="s">
-        <v>63</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
@@ -3909,35 +4744,37 @@
         <v>292</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="X31" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
@@ -3953,7 +4790,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3962,47 +4799,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="O32" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="Y32" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
@@ -4018,52 +4851,58 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J33" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>301</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="X33" t="s">
         <v>302</v>
       </c>
-      <c r="J33" t="s">
-        <v>303</v>
-      </c>
-      <c r="K33" t="s">
-        <v>304</v>
-      </c>
-      <c r="L33" t="s">
-        <v>305</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>286</v>
-      </c>
-      <c r="O33" t="s">
-        <v>63</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
-      <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>278</v>
-      </c>
-      <c r="X33" t="s">
-        <v>279</v>
-      </c>
       <c r="Y33" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
@@ -4079,7 +4918,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4088,49 +4927,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="X34" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="Y34" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35">
@@ -4146,7 +4985,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4155,19 +4994,19 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s"/>
       <c r="O35" t="s"/>
@@ -4181,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="X35" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
@@ -4203,7 +5042,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4212,25 +5051,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4241,10 +5080,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>329</v>
+      </c>
+      <c r="X36" t="s">
+        <v>330</v>
+      </c>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
@@ -4260,39 +5103,39 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
         <v>328</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>329</v>
-      </c>
-      <c r="J37" t="s">
-        <v>330</v>
-      </c>
-      <c r="K37" t="s">
-        <v>331</v>
-      </c>
-      <c r="L37" t="s">
-        <v>332</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>327</v>
-      </c>
       <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
@@ -4302,10 +5145,14 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>337</v>
+      </c>
+      <c r="X37" t="s">
+        <v>338</v>
+      </c>
       <c r="Y37" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -4321,7 +5168,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4330,45 +5177,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="J38" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>346</v>
+      </c>
+      <c r="X38" t="s">
+        <v>347</v>
+      </c>
       <c r="Y38" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
@@ -4384,7 +5229,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4393,45 +5238,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>100</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>354</v>
+      </c>
+      <c r="X39" t="s">
+        <v>355</v>
+      </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
@@ -4447,7 +5296,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4456,45 +5305,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>354</v>
+      </c>
+      <c r="X40" t="s">
+        <v>355</v>
+      </c>
       <c r="Y40" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
@@ -4510,7 +5363,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4519,39 +5372,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="J41" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="O41" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>354</v>
+      </c>
+      <c r="X41" t="s">
+        <v>355</v>
+      </c>
       <c r="Y41" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42">
@@ -4567,7 +5428,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4576,45 +5437,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>376</v>
+      </c>
+      <c r="X42" t="s">
+        <v>377</v>
+      </c>
       <c r="Y42" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43">
@@ -4630,42 +5489,40 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>379</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>380</v>
+      </c>
+      <c r="J43" t="s">
+        <v>381</v>
+      </c>
+      <c r="K43" t="s">
+        <v>382</v>
+      </c>
+      <c r="L43" t="s">
+        <v>383</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>362</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>363</v>
-      </c>
-      <c r="J43" t="s">
-        <v>364</v>
-      </c>
-      <c r="K43" t="s">
-        <v>365</v>
-      </c>
-      <c r="L43" t="s">
-        <v>366</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="s">
-        <v>356</v>
       </c>
       <c r="O43" t="s">
         <v>53</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4675,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="X43" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Y43" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
@@ -4697,7 +5554,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4706,45 +5563,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="J44" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="K44" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
       <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>2</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>376</v>
+      </c>
+      <c r="X44" t="s">
+        <v>377</v>
+      </c>
       <c r="Y44" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45">
@@ -4760,7 +5619,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4769,45 +5628,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="J45" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="K45" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>398</v>
+      </c>
+      <c r="X45" t="s">
+        <v>399</v>
+      </c>
       <c r="Y45" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
@@ -4823,7 +5680,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4832,22 +5689,26 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="J46" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="K46" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>397</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
@@ -4857,10 +5718,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>406</v>
+      </c>
+      <c r="X46" t="s">
+        <v>407</v>
+      </c>
       <c r="Y46" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47">
@@ -4876,7 +5741,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4885,45 +5750,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="J47" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="K47" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+      <c r="N47" t="s">
+        <v>397</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>406</v>
+      </c>
+      <c r="X47" t="s">
+        <v>407</v>
+      </c>
       <c r="Y47" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48">
@@ -4939,7 +5802,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4948,33 +5811,31 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="K48" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
         <v>3</v>
       </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -4983,10 +5844,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>421</v>
+      </c>
+      <c r="X48" t="s">
+        <v>422</v>
+      </c>
       <c r="Y48" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49">
@@ -5002,7 +5867,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5011,49 +5876,49 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="J49" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="K49" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="L49" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
         <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>421</v>
+      </c>
+      <c r="X49" t="s">
+        <v>422</v>
+      </c>
       <c r="Y49" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50">
@@ -5069,7 +5934,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5078,49 +5943,43 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="J50" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="K50" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="L50" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="O50" t="s">
-        <v>100</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>421</v>
+      </c>
+      <c r="X50" t="s">
+        <v>422</v>
+      </c>
       <c r="Y50" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
@@ -5136,7 +5995,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5145,38 +6004,32 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="J51" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="K51" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="L51" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
         <v>4</v>
       </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>4</v>
@@ -5184,10 +6037,14 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>421</v>
+      </c>
+      <c r="X51" t="s">
+        <v>422</v>
+      </c>
       <c r="Y51" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
@@ -5203,7 +6060,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5212,53 +6069,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O52" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="X52" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="Y52" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53">
@@ -5274,7 +6127,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5283,45 +6136,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="J53" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="K53" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="L53" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>457</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>421</v>
+      </c>
+      <c r="X53" t="s">
+        <v>422</v>
+      </c>
       <c r="Y53" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
@@ -5337,7 +6194,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5346,49 +6203,47 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
+        <v>460</v>
+      </c>
+      <c r="J54" t="s">
+        <v>461</v>
+      </c>
+      <c r="K54" t="s">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s">
+        <v>463</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
         <v>435</v>
       </c>
-      <c r="J54" t="s">
-        <v>436</v>
-      </c>
-      <c r="K54" t="s">
-        <v>437</v>
-      </c>
-      <c r="L54" t="s">
-        <v>438</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="s">
-        <v>439</v>
-      </c>
       <c r="O54" t="s">
-        <v>63</v>
-      </c>
-      <c r="P54" t="n">
-        <v>3</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
-        <v>3</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>421</v>
+      </c>
+      <c r="X54" t="s">
+        <v>422</v>
+      </c>
       <c r="Y54" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55">
@@ -5404,7 +6259,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5413,45 +6268,43 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="J55" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>435</v>
+      </c>
+      <c r="O55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>3</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>421</v>
+      </c>
+      <c r="X55" t="s">
+        <v>422</v>
+      </c>
       <c r="Y55" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56">
@@ -5467,7 +6320,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5476,49 +6329,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="J56" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="K56" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="L56" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="O56" t="s">
-        <v>100</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>421</v>
+      </c>
+      <c r="X56" t="s">
+        <v>422</v>
+      </c>
       <c r="Y56" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
@@ -5534,7 +6387,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5543,49 +6396,39 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="J57" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="O57" t="s">
-        <v>81</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>4</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58">
@@ -5601,7 +6444,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5610,32 +6453,28 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="J58" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="K58" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="L58" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
         <v>4</v>
       </c>
@@ -5652,7 +6491,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59">
@@ -5668,7 +6507,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5677,45 +6516,39 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="J59" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="K59" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="L59" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
-      </c>
-      <c r="N59" t="s">
-        <v>470</v>
-      </c>
-      <c r="O59" t="s">
-        <v>63</v>
-      </c>
-      <c r="P59" t="n">
         <v>3</v>
       </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
-      <c r="S59" t="n">
-        <v>4</v>
-      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>495</v>
+      </c>
+      <c r="X59" t="s">
+        <v>496</v>
+      </c>
       <c r="Y59" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60">
@@ -5731,7 +6564,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5740,45 +6573,39 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="J60" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="K60" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="L60" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="O60" t="s">
         <v>53</v>
       </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61">
@@ -5794,7 +6621,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5803,37 +6630,35 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="J61" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="K61" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="L61" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
-      </c>
-      <c r="P61" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q61" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
       <c r="R61" t="s"/>
-      <c r="S61" t="n">
-        <v>3</v>
-      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5841,7 +6666,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62">
@@ -5857,7 +6682,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5866,41 +6691,37 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="J62" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="K62" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="L62" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P62" t="s"/>
       <c r="Q62" t="n">
         <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -5908,7 +6729,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63">
@@ -5924,7 +6745,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5933,49 +6754,39 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="J63" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="K63" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="L63" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="O63" t="s">
-        <v>100</v>
-      </c>
-      <c r="P63" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>4</v>
-      </c>
-      <c r="R63" t="n">
-        <v>3</v>
-      </c>
-      <c r="S63" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>2</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
     </row>
     <row r="64">
@@ -5991,7 +6802,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6000,41 +6811,37 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="J64" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="K64" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="L64" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="O64" t="s">
-        <v>100</v>
-      </c>
-      <c r="P64" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
       <c r="R64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -6042,7 +6849,2705 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>501</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>526</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>527</v>
+      </c>
+      <c r="J65" t="s">
+        <v>528</v>
+      </c>
+      <c r="K65" t="s">
+        <v>529</v>
+      </c>
+      <c r="L65" t="s">
+        <v>530</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>531</v>
+      </c>
+      <c r="O65" t="s">
+        <v>130</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>532</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>533</v>
+      </c>
+      <c r="J66" t="s">
+        <v>534</v>
+      </c>
+      <c r="K66" t="s">
+        <v>535</v>
+      </c>
+      <c r="L66" t="s">
+        <v>536</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>531</v>
+      </c>
+      <c r="O66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>538</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>539</v>
+      </c>
+      <c r="J67" t="s">
+        <v>540</v>
+      </c>
+      <c r="K67" t="s">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s">
+        <v>542</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>543</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>544</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>545</v>
+      </c>
+      <c r="J68" t="s">
+        <v>546</v>
+      </c>
+      <c r="K68" t="s">
+        <v>547</v>
+      </c>
+      <c r="L68" t="s">
+        <v>548</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>543</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>549</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>550</v>
+      </c>
+      <c r="J69" t="s">
+        <v>551</v>
+      </c>
+      <c r="K69" t="s">
+        <v>552</v>
+      </c>
+      <c r="L69" t="s">
+        <v>553</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>554</v>
+      </c>
+      <c r="O69" t="s">
+        <v>130</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>555</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>556</v>
+      </c>
+      <c r="J70" t="s">
+        <v>551</v>
+      </c>
+      <c r="K70" t="s">
+        <v>557</v>
+      </c>
+      <c r="L70" t="s">
+        <v>558</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>554</v>
+      </c>
+      <c r="O70" t="s">
+        <v>79</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>560</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>561</v>
+      </c>
+      <c r="J71" t="s">
+        <v>562</v>
+      </c>
+      <c r="K71" t="s">
+        <v>563</v>
+      </c>
+      <c r="L71" t="s">
+        <v>564</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>554</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>565</v>
+      </c>
+      <c r="X71" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>568</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>569</v>
+      </c>
+      <c r="J72" t="s">
+        <v>570</v>
+      </c>
+      <c r="K72" t="s">
+        <v>571</v>
+      </c>
+      <c r="L72" t="s">
+        <v>572</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>565</v>
+      </c>
+      <c r="X72" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>574</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>575</v>
+      </c>
+      <c r="J73" t="s">
+        <v>576</v>
+      </c>
+      <c r="K73" t="s">
+        <v>577</v>
+      </c>
+      <c r="L73" t="s">
+        <v>578</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>579</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>581</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>582</v>
+      </c>
+      <c r="J74" t="s">
+        <v>583</v>
+      </c>
+      <c r="K74" t="s">
+        <v>584</v>
+      </c>
+      <c r="L74" t="s">
+        <v>585</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>586</v>
+      </c>
+      <c r="O74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>588</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>589</v>
+      </c>
+      <c r="J75" t="s">
+        <v>590</v>
+      </c>
+      <c r="K75" t="s">
+        <v>591</v>
+      </c>
+      <c r="L75" t="s">
+        <v>592</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>586</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>594</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>595</v>
+      </c>
+      <c r="J76" t="s">
+        <v>596</v>
+      </c>
+      <c r="K76" t="s">
+        <v>597</v>
+      </c>
+      <c r="L76" t="s">
+        <v>598</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>599</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>600</v>
+      </c>
+      <c r="J77" t="s">
+        <v>601</v>
+      </c>
+      <c r="K77" t="s">
+        <v>602</v>
+      </c>
+      <c r="L77" t="s">
+        <v>603</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>604</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>605</v>
+      </c>
+      <c r="J78" t="s">
+        <v>606</v>
+      </c>
+      <c r="K78" t="s">
+        <v>607</v>
+      </c>
+      <c r="L78" t="s">
+        <v>608</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>586</v>
+      </c>
+      <c r="O78" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>610</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>611</v>
+      </c>
+      <c r="J79" t="s">
+        <v>612</v>
+      </c>
+      <c r="K79" t="s">
+        <v>613</v>
+      </c>
+      <c r="L79" t="s">
+        <v>614</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>615</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>616</v>
+      </c>
+      <c r="J80" t="s">
+        <v>617</v>
+      </c>
+      <c r="K80" t="s">
+        <v>618</v>
+      </c>
+      <c r="L80" t="s">
+        <v>619</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>586</v>
+      </c>
+      <c r="O80" t="s">
+        <v>79</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>621</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>622</v>
+      </c>
+      <c r="J81" t="s">
+        <v>623</v>
+      </c>
+      <c r="K81" t="s">
+        <v>624</v>
+      </c>
+      <c r="L81" t="s">
+        <v>625</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>626</v>
+      </c>
+      <c r="O81" t="s">
+        <v>79</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>628</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>629</v>
+      </c>
+      <c r="J82" t="s">
+        <v>630</v>
+      </c>
+      <c r="K82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L82" t="s">
+        <v>632</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>633</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>635</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>636</v>
+      </c>
+      <c r="J83" t="s">
+        <v>637</v>
+      </c>
+      <c r="K83" t="s">
+        <v>638</v>
+      </c>
+      <c r="L83" t="s">
+        <v>639</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>640</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>641</v>
+      </c>
+      <c r="J84" t="s">
+        <v>642</v>
+      </c>
+      <c r="K84" t="s">
+        <v>643</v>
+      </c>
+      <c r="L84" t="s">
+        <v>644</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>645</v>
+      </c>
+      <c r="O84" t="s">
+        <v>130</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>647</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>648</v>
+      </c>
+      <c r="J85" t="s">
+        <v>649</v>
+      </c>
+      <c r="K85" t="s">
+        <v>650</v>
+      </c>
+      <c r="L85" t="s">
+        <v>651</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>652</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>654</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>655</v>
+      </c>
+      <c r="J86" t="s">
+        <v>656</v>
+      </c>
+      <c r="K86" t="s">
+        <v>657</v>
+      </c>
+      <c r="L86" t="s">
+        <v>658</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>659</v>
+      </c>
+      <c r="O86" t="s">
+        <v>130</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>660</v>
+      </c>
+      <c r="X86" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>663</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>664</v>
+      </c>
+      <c r="J87" t="s">
+        <v>665</v>
+      </c>
+      <c r="K87" t="s">
+        <v>666</v>
+      </c>
+      <c r="L87" t="s">
+        <v>667</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>659</v>
+      </c>
+      <c r="O87" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>660</v>
+      </c>
+      <c r="X87" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>669</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>670</v>
+      </c>
+      <c r="J88" t="s">
+        <v>671</v>
+      </c>
+      <c r="K88" t="s">
+        <v>672</v>
+      </c>
+      <c r="L88" t="s">
+        <v>673</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>674</v>
+      </c>
+      <c r="O88" t="s">
+        <v>79</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>675</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>676</v>
+      </c>
+      <c r="J89" t="s">
+        <v>677</v>
+      </c>
+      <c r="K89" t="s">
+        <v>678</v>
+      </c>
+      <c r="L89" t="s">
+        <v>679</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>680</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>681</v>
+      </c>
+      <c r="J90" t="s">
+        <v>682</v>
+      </c>
+      <c r="K90" t="s">
+        <v>683</v>
+      </c>
+      <c r="L90" t="s">
+        <v>684</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>674</v>
+      </c>
+      <c r="O90" t="s">
+        <v>79</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>686</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>687</v>
+      </c>
+      <c r="J91" t="s">
+        <v>688</v>
+      </c>
+      <c r="K91" t="s">
+        <v>689</v>
+      </c>
+      <c r="L91" t="s">
+        <v>690</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>691</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>692</v>
+      </c>
+      <c r="J92" t="s">
+        <v>693</v>
+      </c>
+      <c r="K92" t="s">
+        <v>694</v>
+      </c>
+      <c r="L92" t="s">
+        <v>695</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>696</v>
+      </c>
+      <c r="O92" t="s">
+        <v>79</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>697</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>698</v>
+      </c>
+      <c r="J93" t="s">
+        <v>699</v>
+      </c>
+      <c r="K93" t="s">
+        <v>700</v>
+      </c>
+      <c r="L93" t="s">
+        <v>701</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>702</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>703</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>704</v>
+      </c>
+      <c r="J94" t="s">
+        <v>705</v>
+      </c>
+      <c r="K94" t="s">
+        <v>706</v>
+      </c>
+      <c r="L94" t="s">
+        <v>707</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>702</v>
+      </c>
+      <c r="O94" t="s">
+        <v>130</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>709</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>710</v>
+      </c>
+      <c r="J95" t="s">
+        <v>711</v>
+      </c>
+      <c r="K95" t="s">
+        <v>712</v>
+      </c>
+      <c r="L95" t="s">
+        <v>713</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>714</v>
+      </c>
+      <c r="O95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>715</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>716</v>
+      </c>
+      <c r="J96" t="s">
+        <v>717</v>
+      </c>
+      <c r="K96" t="s">
+        <v>718</v>
+      </c>
+      <c r="L96" t="s">
+        <v>719</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>720</v>
+      </c>
+      <c r="O96" t="s">
+        <v>79</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>721</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>722</v>
+      </c>
+      <c r="J97" t="s">
+        <v>723</v>
+      </c>
+      <c r="K97" t="s">
+        <v>724</v>
+      </c>
+      <c r="L97" t="s">
+        <v>725</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>727</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>728</v>
+      </c>
+      <c r="J98" t="s">
+        <v>729</v>
+      </c>
+      <c r="K98" t="s">
+        <v>730</v>
+      </c>
+      <c r="L98" t="s">
+        <v>731</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>732</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>734</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>735</v>
+      </c>
+      <c r="J99" t="s">
+        <v>736</v>
+      </c>
+      <c r="K99" t="s">
+        <v>737</v>
+      </c>
+      <c r="L99" t="s">
+        <v>738</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>739</v>
+      </c>
+      <c r="O99" t="s">
+        <v>79</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>740</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>741</v>
+      </c>
+      <c r="J100" t="s">
+        <v>742</v>
+      </c>
+      <c r="K100" t="s">
+        <v>743</v>
+      </c>
+      <c r="L100" t="s">
+        <v>744</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>745</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>746</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>747</v>
+      </c>
+      <c r="J101" t="s">
+        <v>742</v>
+      </c>
+      <c r="K101" t="s">
+        <v>748</v>
+      </c>
+      <c r="L101" t="s">
+        <v>749</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>750</v>
+      </c>
+      <c r="O101" t="s">
+        <v>79</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>752</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>753</v>
+      </c>
+      <c r="J102" t="s">
+        <v>754</v>
+      </c>
+      <c r="K102" t="s">
+        <v>755</v>
+      </c>
+      <c r="L102" t="s">
+        <v>756</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>757</v>
+      </c>
+      <c r="O102" t="s">
+        <v>79</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>758</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>759</v>
+      </c>
+      <c r="J103" t="s">
+        <v>760</v>
+      </c>
+      <c r="K103" t="s">
+        <v>761</v>
+      </c>
+      <c r="L103" t="s">
+        <v>762</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>763</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>764</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>765</v>
+      </c>
+      <c r="J104" t="s">
+        <v>766</v>
+      </c>
+      <c r="K104" t="s">
+        <v>767</v>
+      </c>
+      <c r="L104" t="s">
+        <v>768</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>769</v>
+      </c>
+      <c r="O104" t="s">
+        <v>79</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>770</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>771</v>
+      </c>
+      <c r="J105" t="s">
+        <v>772</v>
+      </c>
+      <c r="K105" t="s">
+        <v>773</v>
+      </c>
+      <c r="L105" t="s">
+        <v>774</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s">
+        <v>775</v>
+      </c>
+      <c r="O105" t="s">
+        <v>130</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>2</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>57420</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>776</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>777</v>
+      </c>
+      <c r="J106" t="s">
+        <v>778</v>
+      </c>
+      <c r="K106" t="s">
+        <v>779</v>
+      </c>
+      <c r="L106" t="s">
+        <v>780</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>781</v>
+      </c>
+      <c r="O106" t="s">
+        <v>130</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
